--- a/pra/dataframe.xlsx
+++ b/pra/dataframe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\ai\pra\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3393D8C7-08EA-4281-B493-2BF15B0D7E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1411BB-0507-43FF-A19B-E533BD4765B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E474CAB2-49FE-4869-A3D5-2A699FD9E748}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>소비자물가</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>수도권 과밀화율</t>
-  </si>
-  <si>
-    <t>과밀화 변화율</t>
   </si>
   <si>
     <t>신생아 출산인구</t>
@@ -142,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,21 +233,6 @@
         <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -291,7 +273,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,13 +307,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -346,10 +322,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -672,19 +648,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF1B928-851C-4A55-97D4-ABDA412439AF}">
-  <dimension ref="A1:G846"/>
+  <dimension ref="A1:F846"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.4" thickBot="1">
+    <row r="1" spans="1:6" ht="35.4" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,19 +671,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="2" spans="1:6" ht="18" thickBot="1">
       <c r="A2" s="2">
         <v>3.7</v>
       </c>
@@ -717,20 +690,17 @@
       <c r="C2" s="8">
         <v>102985.8</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
+        <v>655489</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1.58</v>
+      </c>
+      <c r="F2" s="9">
         <v>36.889000000000003</v>
       </c>
-      <c r="E2" s="13">
-        <v>655489</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1.58</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.67300000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="3" spans="1:6" ht="18" thickBot="1">
       <c r="A3" s="2">
         <v>0.9</v>
       </c>
@@ -740,20 +710,17 @@
       <c r="C3" s="8">
         <v>121697.8</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
+        <v>636019</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1.53</v>
+      </c>
+      <c r="F3" s="9">
         <v>37.802999999999997</v>
       </c>
-      <c r="E3" s="13">
-        <v>636019</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1.53</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.84399999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="4" spans="1:6" ht="18" thickBot="1">
       <c r="A4" s="2">
         <v>6.2</v>
       </c>
@@ -763,20 +730,17 @@
       <c r="C4" s="8">
         <v>145994.70000000001</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
+        <v>623831</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1.55</v>
+      </c>
+      <c r="F4" s="9">
         <v>38.942999999999998</v>
       </c>
-      <c r="E4" s="13">
-        <v>623831</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1.55</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.91400000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="A5" s="2">
         <v>6.8</v>
       </c>
@@ -786,20 +750,17 @@
       <c r="C5" s="8">
         <v>165801.79999999999</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
+        <v>633092</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.56</v>
+      </c>
+      <c r="F5" s="9">
         <v>39.067</v>
       </c>
-      <c r="E5" s="13">
-        <v>633092</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1.56</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1">
       <c r="A6" s="2">
         <v>7.3</v>
       </c>
@@ -809,20 +770,17 @@
       <c r="C6" s="8">
         <v>200556.2</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
+        <v>639431</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1.57</v>
+      </c>
+      <c r="F6" s="9">
         <v>40.009</v>
       </c>
-      <c r="E6" s="13">
-        <v>639431</v>
-      </c>
-      <c r="F6" s="18">
-        <v>1.57</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="7" spans="1:6" ht="18" thickBot="1">
       <c r="A7" s="2">
         <v>9.1999999999999993</v>
       </c>
@@ -832,20 +790,17 @@
       <c r="C7" s="8">
         <v>242481.1</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="11">
+        <v>649738</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.71</v>
+      </c>
+      <c r="F7" s="10">
         <v>40.113999999999997</v>
       </c>
-      <c r="E7" s="13">
-        <v>649738</v>
-      </c>
-      <c r="F7" s="18">
-        <v>1.71</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.94199999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="A8" s="2">
         <v>7.7</v>
       </c>
@@ -855,20 +810,17 @@
       <c r="C8" s="8">
         <v>277540.8</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
+        <v>709275</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1.76</v>
+      </c>
+      <c r="F8" s="10">
         <v>40.466999999999999</v>
       </c>
-      <c r="E8" s="13">
-        <v>709275</v>
-      </c>
-      <c r="F8" s="18">
-        <v>1.76</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="9" spans="1:6" ht="18" thickBot="1">
       <c r="A9" s="2">
         <v>4.5</v>
       </c>
@@ -878,20 +830,17 @@
       <c r="C9" s="8">
         <v>315181.3</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
+        <v>730678</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.6539999999999999</v>
+      </c>
+      <c r="F9" s="10">
         <v>40.689</v>
       </c>
-      <c r="E9" s="13">
-        <v>730678</v>
-      </c>
-      <c r="F9" s="18">
-        <v>1.6539999999999999</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.35299999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="10" spans="1:6" ht="18" thickBot="1">
       <c r="A10" s="2">
         <v>6.3</v>
       </c>
@@ -901,20 +850,17 @@
       <c r="C10" s="8">
         <v>372493.4</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="11">
+        <v>715826</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.6559999999999999</v>
+      </c>
+      <c r="F10" s="10">
         <v>40.640999999999998</v>
       </c>
-      <c r="E10" s="13">
-        <v>715826</v>
-      </c>
-      <c r="F10" s="18">
-        <v>1.6559999999999999</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="11" spans="1:6" ht="18" thickBot="1">
       <c r="A11" s="2">
         <v>5.2</v>
       </c>
@@ -924,20 +870,17 @@
       <c r="C11" s="8">
         <v>436988.8</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="11">
+        <v>721185</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.6339999999999999</v>
+      </c>
+      <c r="F11" s="10">
         <v>40.787999999999997</v>
       </c>
-      <c r="E11" s="13">
-        <v>721185</v>
-      </c>
-      <c r="F11" s="18">
-        <v>1.6339999999999999</v>
-      </c>
-      <c r="G11" s="11">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="12" spans="1:6" ht="18" thickBot="1">
       <c r="A12" s="2">
         <v>4.8</v>
       </c>
@@ -947,20 +890,17 @@
       <c r="C12" s="8">
         <v>490850.9</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
+        <v>715020</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.5740000000000001</v>
+      </c>
+      <c r="F12" s="10">
         <v>40.920999999999999</v>
       </c>
-      <c r="E12" s="13">
-        <v>715020</v>
-      </c>
-      <c r="F12" s="18">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.14699999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1">
       <c r="A13" s="2">
         <v>4.7</v>
       </c>
@@ -970,20 +910,17 @@
       <c r="C13" s="8">
         <v>542001.80000000005</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
+        <v>691226</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="F13" s="10">
         <v>40.826999999999998</v>
       </c>
-      <c r="E13" s="13">
-        <v>691226</v>
-      </c>
-      <c r="F13" s="18">
-        <v>1.5369999999999999</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="14" spans="1:6" ht="18" thickBot="1">
       <c r="A14" s="2">
         <v>8.3000000000000007</v>
       </c>
@@ -993,20 +930,17 @@
       <c r="C14" s="8">
         <v>537215.30000000005</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
+        <v>675394</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.464</v>
+      </c>
+      <c r="F14" s="10">
         <v>41.057000000000002</v>
       </c>
-      <c r="E14" s="13">
-        <v>675394</v>
-      </c>
-      <c r="F14" s="18">
-        <v>1.464</v>
-      </c>
-      <c r="G14" s="11">
-        <v>-9.4E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="A15" s="2">
         <v>1.5</v>
       </c>
@@ -1016,20 +950,17 @@
       <c r="C15" s="8">
         <v>591453</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="11">
+        <v>641594</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.425</v>
+      </c>
+      <c r="F15" s="9">
         <v>41.48</v>
       </c>
-      <c r="E15" s="13">
-        <v>641594</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1.425</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="16" spans="1:6" ht="18" thickBot="1">
       <c r="A16" s="2">
         <v>1.9</v>
       </c>
@@ -1039,20 +970,17 @@
       <c r="C16" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="12">
+        <v>56949</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F16" s="9">
         <v>41.48</v>
       </c>
-      <c r="E16" s="14">
-        <v>56949</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G16" s="12">
-        <v>0.42299999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1">
       <c r="A17" s="2">
         <v>1.8</v>
       </c>
@@ -1062,20 +990,17 @@
       <c r="C17" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="12">
+        <v>49939</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F17" s="9">
         <v>41.48</v>
       </c>
-      <c r="E17" s="14">
-        <v>49939</v>
-      </c>
-      <c r="F17" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="18" spans="1:6" ht="18" thickBot="1">
       <c r="A18" s="2">
         <v>2.1</v>
       </c>
@@ -1085,20 +1010,17 @@
       <c r="C18" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="12">
+        <v>54549</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F18" s="9">
         <v>41.48</v>
       </c>
-      <c r="E18" s="14">
-        <v>54549</v>
-      </c>
-      <c r="F18" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1">
       <c r="A19" s="2">
         <v>1.4</v>
       </c>
@@ -1108,20 +1030,17 @@
       <c r="C19" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="12">
+        <v>48309</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F19" s="9">
         <v>41.48</v>
       </c>
-      <c r="E19" s="14">
-        <v>48309</v>
-      </c>
-      <c r="F19" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="20" spans="1:6" ht="18" thickBot="1">
       <c r="A20" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1131,20 +1050,17 @@
       <c r="C20" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="12">
+        <v>46802</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F20" s="9">
         <v>41.48</v>
       </c>
-      <c r="E20" s="14">
-        <v>46802</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="21" spans="1:6" ht="18" thickBot="1">
       <c r="A21" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1154,20 +1070,17 @@
       <c r="C21" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="12">
+        <v>41809</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F21" s="9">
         <v>41.48</v>
       </c>
-      <c r="E21" s="14">
-        <v>41809</v>
-      </c>
-      <c r="F21" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="22" spans="1:6" ht="18" thickBot="1">
       <c r="A22" s="2">
         <v>3</v>
       </c>
@@ -1177,20 +1090,17 @@
       <c r="C22" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="12">
+        <v>42404</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F22" s="9">
         <v>41.48</v>
       </c>
-      <c r="E22" s="14">
-        <v>42404</v>
-      </c>
-      <c r="F22" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="23" spans="1:6" ht="18" thickBot="1">
       <c r="A23" s="2">
         <v>2.4</v>
       </c>
@@ -1200,20 +1110,17 @@
       <c r="C23" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="12">
+        <v>43830</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F23" s="9">
         <v>41.48</v>
       </c>
-      <c r="E23" s="14">
-        <v>43830</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="24" spans="1:6" ht="18" thickBot="1">
       <c r="A24" s="2">
         <v>3.5</v>
       </c>
@@ -1223,20 +1130,17 @@
       <c r="C24" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="12">
+        <v>45673</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F24" s="9">
         <v>41.48</v>
       </c>
-      <c r="E24" s="14">
-        <v>45673</v>
-      </c>
-      <c r="F24" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="25" spans="1:6" ht="18" thickBot="1">
       <c r="A25" s="2">
         <v>2.6</v>
       </c>
@@ -1246,20 +1150,17 @@
       <c r="C25" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="12">
+        <v>44814</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F25" s="9">
         <v>41.48</v>
       </c>
-      <c r="E25" s="14">
-        <v>44814</v>
-      </c>
-      <c r="F25" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="A26" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1269,20 +1170,17 @@
       <c r="C26" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="12">
+        <v>42753</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F26" s="9">
         <v>41.48</v>
       </c>
-      <c r="E26" s="14">
-        <v>42753</v>
-      </c>
-      <c r="F26" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="27" spans="1:6" ht="18" thickBot="1">
       <c r="A27" s="2">
         <v>2.8</v>
       </c>
@@ -1292,20 +1190,17 @@
       <c r="C27" s="8">
         <v>651634.4</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="12">
+        <v>42103</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1.48</v>
+      </c>
+      <c r="F27" s="9">
         <v>41.8</v>
       </c>
-      <c r="E27" s="14">
-        <v>42103</v>
-      </c>
-      <c r="F27" s="20">
-        <v>1.48</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="28" spans="1:6" ht="18" thickBot="1">
       <c r="A28" s="2">
         <v>3.4</v>
       </c>
@@ -1315,20 +1210,17 @@
       <c r="C28" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="12">
+        <v>48825</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F28" s="9">
         <v>41.8</v>
       </c>
-      <c r="E28" s="14">
-        <v>48825</v>
-      </c>
-      <c r="F28" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="A29" s="2">
         <v>3.6</v>
       </c>
@@ -1338,20 +1230,17 @@
       <c r="C29" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="12">
+        <v>43579</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F29" s="9">
         <v>41.8</v>
       </c>
-      <c r="E29" s="14">
-        <v>43579</v>
-      </c>
-      <c r="F29" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="30" spans="1:6" ht="18" thickBot="1">
       <c r="A30" s="2">
         <v>4</v>
       </c>
@@ -1361,20 +1250,17 @@
       <c r="C30" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="12">
+        <v>47753</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F30" s="9">
         <v>41.8</v>
       </c>
-      <c r="E30" s="14">
-        <v>47753</v>
-      </c>
-      <c r="F30" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="31" spans="1:6" ht="18" thickBot="1">
       <c r="A31" s="2">
         <v>4.8</v>
       </c>
@@ -1384,20 +1270,17 @@
       <c r="C31" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="12">
+        <v>43453</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F31" s="9">
         <v>41.8</v>
       </c>
-      <c r="E31" s="14">
-        <v>43453</v>
-      </c>
-      <c r="F31" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="32" spans="1:6" ht="18" thickBot="1">
       <c r="A32" s="2">
         <v>5.3</v>
       </c>
@@ -1407,20 +1290,17 @@
       <c r="C32" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="12">
+        <v>41977</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F32" s="9">
         <v>41.8</v>
       </c>
-      <c r="E32" s="14">
-        <v>41977</v>
-      </c>
-      <c r="F32" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="A33" s="2">
         <v>5</v>
       </c>
@@ -1430,20 +1310,17 @@
       <c r="C33" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="12">
+        <v>37575</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F33" s="9">
         <v>41.8</v>
       </c>
-      <c r="E33" s="14">
-        <v>37575</v>
-      </c>
-      <c r="F33" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="34" spans="1:6" ht="18" thickBot="1">
       <c r="A34" s="2">
         <v>4.8</v>
       </c>
@@ -1453,20 +1330,17 @@
       <c r="C34" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="12">
+        <v>40361</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F34" s="9">
         <v>41.8</v>
       </c>
-      <c r="E34" s="14">
-        <v>40361</v>
-      </c>
-      <c r="F34" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="35" spans="1:6" ht="18" thickBot="1">
       <c r="A35" s="2">
         <v>4.7</v>
       </c>
@@ -1476,20 +1350,17 @@
       <c r="C35" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="12">
+        <v>39751</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F35" s="9">
         <v>41.8</v>
       </c>
-      <c r="E35" s="14">
-        <v>39751</v>
-      </c>
-      <c r="F35" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="36" spans="1:6" ht="18" thickBot="1">
       <c r="A36" s="2">
         <v>3.3</v>
       </c>
@@ -1499,20 +1370,17 @@
       <c r="C36" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="12">
+        <v>39615</v>
+      </c>
+      <c r="E36" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F36" s="9">
         <v>41.8</v>
       </c>
-      <c r="E36" s="14">
-        <v>39615</v>
-      </c>
-      <c r="F36" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="37" spans="1:6" ht="18" thickBot="1">
       <c r="A37" s="2">
         <v>3.4</v>
       </c>
@@ -1522,20 +1390,17 @@
       <c r="C37" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="12">
+        <v>39458</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F37" s="9">
         <v>41.8</v>
       </c>
-      <c r="E37" s="14">
-        <v>39458</v>
-      </c>
-      <c r="F37" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="38" spans="1:6" ht="18" thickBot="1">
       <c r="A38" s="2">
         <v>3.4</v>
       </c>
@@ -1545,20 +1410,17 @@
       <c r="C38" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="12">
+        <v>37921</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F38" s="9">
         <v>41.8</v>
       </c>
-      <c r="E38" s="14">
-        <v>37921</v>
-      </c>
-      <c r="F38" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="39" spans="1:6" ht="18" thickBot="1">
       <c r="A39" s="2">
         <v>3.2</v>
       </c>
@@ -1568,20 +1430,17 @@
       <c r="C39" s="8">
         <v>707021.3</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="12">
+        <v>36643</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="F39" s="9">
         <v>42.25</v>
       </c>
-      <c r="E39" s="14">
-        <v>36643</v>
-      </c>
-      <c r="F39" s="20">
-        <v>1.3089999999999999</v>
-      </c>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="40" spans="1:6" ht="18" thickBot="1">
       <c r="A40" s="2">
         <v>2.6</v>
       </c>
@@ -1591,20 +1450,17 @@
       <c r="C40" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="12">
+        <v>45423</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F40" s="9">
         <v>42.25</v>
       </c>
-      <c r="E40" s="14">
-        <v>45423</v>
-      </c>
-      <c r="F40" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="41" spans="1:6" ht="18" thickBot="1">
       <c r="A41" s="2">
         <v>2.6</v>
       </c>
@@ -1614,20 +1470,17 @@
       <c r="C41" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="12">
+        <v>41909</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F41" s="9">
         <v>42.25</v>
       </c>
-      <c r="E41" s="14">
-        <v>41909</v>
-      </c>
-      <c r="F41" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="42" spans="1:6" ht="18" thickBot="1">
       <c r="A42" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -1637,20 +1490,17 @@
       <c r="C42" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="12">
+        <v>45972</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F42" s="9">
         <v>42.25</v>
       </c>
-      <c r="E42" s="14">
-        <v>45972</v>
-      </c>
-      <c r="F42" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="43" spans="1:6" ht="18" thickBot="1">
       <c r="A43" s="2">
         <v>2.5</v>
       </c>
@@ -1660,20 +1510,17 @@
       <c r="C43" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="12">
+        <v>43040</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F43" s="9">
         <v>42.25</v>
       </c>
-      <c r="E43" s="14">
-        <v>43040</v>
-      </c>
-      <c r="F43" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="A44" s="2">
         <v>3</v>
       </c>
@@ -1683,20 +1530,17 @@
       <c r="C44" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="12">
+        <v>41132</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F44" s="9">
         <v>42.25</v>
       </c>
-      <c r="E44" s="14">
-        <v>41132</v>
-      </c>
-      <c r="F44" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="45" spans="1:6" ht="18" thickBot="1">
       <c r="A45" s="2">
         <v>2.6</v>
       </c>
@@ -1706,20 +1550,17 @@
       <c r="C45" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="12">
+        <v>36879</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F45" s="9">
         <v>42.25</v>
       </c>
-      <c r="E45" s="14">
-        <v>36879</v>
-      </c>
-      <c r="F45" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="46" spans="1:6" ht="18" thickBot="1">
       <c r="A46" s="2">
         <v>2.1</v>
       </c>
@@ -1729,20 +1570,17 @@
       <c r="C46" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="12">
+        <v>38008</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F46" s="9">
         <v>42.25</v>
       </c>
-      <c r="E46" s="14">
-        <v>38008</v>
-      </c>
-      <c r="F46" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="A47" s="2">
         <v>2.4</v>
       </c>
@@ -1752,20 +1590,17 @@
       <c r="C47" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="12">
+        <v>38054</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F47" s="9">
         <v>42.25</v>
       </c>
-      <c r="E47" s="14">
-        <v>38054</v>
-      </c>
-      <c r="F47" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="48" spans="1:6" ht="18" thickBot="1">
       <c r="A48" s="2">
         <v>3.1</v>
       </c>
@@ -1775,20 +1610,17 @@
       <c r="C48" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="12">
+        <v>41645</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F48" s="9">
         <v>42.25</v>
       </c>
-      <c r="E48" s="14">
-        <v>41645</v>
-      </c>
-      <c r="F48" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="49" spans="1:6" ht="18" thickBot="1">
       <c r="A49" s="2">
         <v>2.8</v>
       </c>
@@ -1798,20 +1630,17 @@
       <c r="C49" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="12">
+        <v>43345</v>
+      </c>
+      <c r="E49" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F49" s="9">
         <v>42.25</v>
       </c>
-      <c r="E49" s="14">
-        <v>43345</v>
-      </c>
-      <c r="F49" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="A50" s="2">
         <v>3.5</v>
       </c>
@@ -1821,20 +1650,17 @@
       <c r="C50" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="12">
+        <v>40752</v>
+      </c>
+      <c r="E50" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F50" s="9">
         <v>42.25</v>
       </c>
-      <c r="E50" s="14">
-        <v>40752</v>
-      </c>
-      <c r="F50" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="51" spans="1:6" ht="18" thickBot="1">
       <c r="A51" s="2">
         <v>3.7</v>
       </c>
@@ -1844,20 +1670,17 @@
       <c r="C51" s="8">
         <v>784741.3</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="12">
+        <v>38877</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F51" s="9">
         <v>42.76</v>
       </c>
-      <c r="E51" s="14">
-        <v>38877</v>
-      </c>
-      <c r="F51" s="20">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="52" spans="1:6" ht="18" thickBot="1">
       <c r="A52" s="2">
         <v>3.8</v>
       </c>
@@ -1867,20 +1690,17 @@
       <c r="C52" s="8">
         <v>837365</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="12">
+        <v>45778</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F52" s="9">
         <v>42.76</v>
       </c>
-      <c r="E52" s="14">
-        <v>45778</v>
-      </c>
-      <c r="F52" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="53" spans="1:6" ht="18" thickBot="1">
       <c r="A53" s="2">
         <v>3.9</v>
       </c>
@@ -1890,20 +1710,17 @@
       <c r="C53" s="8">
         <v>837365</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="12">
+        <v>41059</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F53" s="9">
         <v>42.76</v>
       </c>
-      <c r="E53" s="14">
-        <v>41059</v>
-      </c>
-      <c r="F53" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="54" spans="1:6" ht="18" thickBot="1">
       <c r="A54" s="2">
         <v>4.5</v>
       </c>
@@ -1913,20 +1730,17 @@
       <c r="C54" s="8">
         <v>837365</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="12">
+        <v>45422</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F54" s="9">
         <v>42.76</v>
       </c>
-      <c r="E54" s="14">
-        <v>45422</v>
-      </c>
-      <c r="F54" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="55" spans="1:6" ht="18" thickBot="1">
       <c r="A55" s="2">
         <v>3.7</v>
       </c>
@@ -1936,20 +1750,17 @@
       <c r="C55" s="8">
         <v>837365</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="12">
+        <v>40611</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F55" s="9">
         <v>42.76</v>
       </c>
-      <c r="E55" s="14">
-        <v>40611</v>
-      </c>
-      <c r="F55" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="56" spans="1:6" ht="18" thickBot="1">
       <c r="A56" s="2">
         <v>3.2</v>
       </c>
@@ -1959,20 +1770,17 @@
       <c r="C56" s="8">
         <v>837365</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="12">
+        <v>38933</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F56" s="9">
         <v>42.76</v>
       </c>
-      <c r="E56" s="14">
-        <v>38933</v>
-      </c>
-      <c r="F56" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G56" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="57" spans="1:6" ht="18" thickBot="1">
       <c r="A57" s="2">
         <v>3</v>
       </c>
@@ -1982,20 +1790,17 @@
       <c r="C57" s="8">
         <v>837365</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="12">
+        <v>36086</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F57" s="9">
         <v>42.76</v>
       </c>
-      <c r="E57" s="14">
-        <v>36086</v>
-      </c>
-      <c r="F57" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G57" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="58" spans="1:6" ht="18" thickBot="1">
       <c r="A58" s="2">
         <v>3.2</v>
       </c>
@@ -2005,20 +1810,17 @@
       <c r="C58" s="8">
         <v>837365</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="12">
+        <v>38031</v>
+      </c>
+      <c r="E58" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F58" s="9">
         <v>42.76</v>
       </c>
-      <c r="E58" s="14">
-        <v>38031</v>
-      </c>
-      <c r="F58" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="59" spans="1:6" ht="18" thickBot="1">
       <c r="A59" s="2">
         <v>3</v>
       </c>
@@ -2028,20 +1830,17 @@
       <c r="C59" s="8">
         <v>837365</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="12">
+        <v>38324</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F59" s="9">
         <v>42.76</v>
       </c>
-      <c r="E59" s="14">
-        <v>38324</v>
-      </c>
-      <c r="F59" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G59" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="60" spans="1:6" ht="18" thickBot="1">
       <c r="A60" s="2">
         <v>3.3</v>
       </c>
@@ -2051,20 +1850,17 @@
       <c r="C60" s="8">
         <v>837365</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="12">
+        <v>39238</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F60" s="9">
         <v>42.76</v>
       </c>
-      <c r="E60" s="14">
-        <v>39238</v>
-      </c>
-      <c r="F60" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="A61" s="2">
         <v>3.7</v>
       </c>
@@ -2074,20 +1870,17 @@
       <c r="C61" s="8">
         <v>837365</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="12">
+        <v>40855</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F61" s="9">
         <v>42.76</v>
       </c>
-      <c r="E61" s="14">
-        <v>40855</v>
-      </c>
-      <c r="F61" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="62" spans="1:6" ht="18" thickBot="1">
       <c r="A62" s="2">
         <v>3.4</v>
       </c>
@@ -2097,20 +1890,17 @@
       <c r="C62" s="8">
         <v>837365</v>
       </c>
-      <c r="D62" s="9">
+      <c r="D62" s="12">
+        <v>37432</v>
+      </c>
+      <c r="E62" s="18">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F62" s="9">
         <v>42.76</v>
       </c>
-      <c r="E62" s="14">
-        <v>37432</v>
-      </c>
-      <c r="F62" s="20">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="63" spans="1:6" ht="18" thickBot="1">
       <c r="A63" s="2">
         <v>3.4</v>
       </c>
@@ -2120,20 +1910,17 @@
       <c r="C63" s="8">
         <v>837365</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="12">
+        <v>35189</v>
+      </c>
+      <c r="E63" s="18">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F63" s="9">
         <v>43.13</v>
       </c>
-      <c r="E63" s="14">
-        <v>35189</v>
-      </c>
-      <c r="F63" s="20">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="64" spans="1:6" ht="18" thickBot="1">
       <c r="A64" s="2">
         <v>3.4</v>
       </c>
@@ -2143,20 +1930,17 @@
       <c r="C64" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D64" s="9">
+      <c r="D64" s="12">
+        <v>41354</v>
+      </c>
+      <c r="E64" s="18">
+        <v>1.149</v>
+      </c>
+      <c r="F64" s="9">
         <v>43.13</v>
       </c>
-      <c r="E64" s="14">
-        <v>41354</v>
-      </c>
-      <c r="F64" s="20">
-        <v>1.149</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="65" spans="1:6" ht="18" thickBot="1">
       <c r="A65" s="2">
         <v>3.3</v>
       </c>
@@ -2166,20 +1950,17 @@
       <c r="C65" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="12">
+        <v>35810</v>
+      </c>
+      <c r="E65" s="18">
+        <v>1.149</v>
+      </c>
+      <c r="F65" s="9">
         <v>43.13</v>
       </c>
-      <c r="E65" s="14">
-        <v>35810</v>
-      </c>
-      <c r="F65" s="20">
-        <v>1.149</v>
-      </c>
-      <c r="G65" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="66" spans="1:6" ht="18" thickBot="1">
       <c r="A66" s="2">
         <v>3.1</v>
       </c>
@@ -2189,20 +1970,17 @@
       <c r="C66" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D66" s="9">
+      <c r="D66" s="12">
+        <v>41052</v>
+      </c>
+      <c r="E66" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F66" s="9">
         <v>43.13</v>
       </c>
-      <c r="E66" s="14">
-        <v>41052</v>
-      </c>
-      <c r="F66" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="A67" s="2">
         <v>3.3</v>
       </c>
@@ -2212,20 +1990,17 @@
       <c r="C67" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="12">
+        <v>36605</v>
+      </c>
+      <c r="E67" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F67" s="9">
         <v>43.13</v>
       </c>
-      <c r="E67" s="14">
-        <v>36605</v>
-      </c>
-      <c r="F67" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G67" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="68" spans="1:6" ht="18" thickBot="1">
       <c r="A68" s="2">
         <v>3.3</v>
       </c>
@@ -2235,20 +2010,17 @@
       <c r="C68" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D68" s="9">
+      <c r="D68" s="12">
+        <v>35983</v>
+      </c>
+      <c r="E68" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F68" s="9">
         <v>43.13</v>
       </c>
-      <c r="E68" s="14">
-        <v>35983</v>
-      </c>
-      <c r="F68" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G68" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="69" spans="1:6" ht="18" thickBot="1">
       <c r="A69" s="2">
         <v>3.6</v>
       </c>
@@ -2258,20 +2030,17 @@
       <c r="C69" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="12">
+        <v>33725</v>
+      </c>
+      <c r="E69" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F69" s="9">
         <v>43.13</v>
       </c>
-      <c r="E69" s="14">
-        <v>33725</v>
-      </c>
-      <c r="F69" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G69" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="70" spans="1:6" ht="18" thickBot="1">
       <c r="A70" s="2">
         <v>4.4000000000000004</v>
       </c>
@@ -2281,20 +2050,17 @@
       <c r="C70" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="12">
+        <v>34658</v>
+      </c>
+      <c r="E70" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F70" s="9">
         <v>43.13</v>
       </c>
-      <c r="E70" s="14">
-        <v>34658</v>
-      </c>
-      <c r="F70" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G70" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="71" spans="1:6" ht="18" thickBot="1">
       <c r="A71" s="2">
         <v>4.8</v>
       </c>
@@ -2304,20 +2070,17 @@
       <c r="C71" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="12">
+        <v>36003</v>
+      </c>
+      <c r="E71" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F71" s="9">
         <v>43.13</v>
       </c>
-      <c r="E71" s="14">
-        <v>36003</v>
-      </c>
-      <c r="F71" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G71" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="72" spans="1:6" ht="18" thickBot="1">
       <c r="A72" s="2">
         <v>3.9</v>
       </c>
@@ -2327,20 +2090,17 @@
       <c r="C72" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="12">
+        <v>37413</v>
+      </c>
+      <c r="E72" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F72" s="9">
         <v>43.13</v>
       </c>
-      <c r="E72" s="14">
-        <v>37413</v>
-      </c>
-      <c r="F72" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G72" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="73" spans="1:6" ht="18" thickBot="1">
       <c r="A73" s="2">
         <v>3.8</v>
       </c>
@@ -2350,20 +2110,17 @@
       <c r="C73" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="12">
+        <v>37283</v>
+      </c>
+      <c r="E73" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F73" s="9">
         <v>43.13</v>
       </c>
-      <c r="E73" s="14">
-        <v>37283</v>
-      </c>
-      <c r="F73" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="74" spans="1:6" ht="18" thickBot="1">
       <c r="A74" s="2">
         <v>3.3</v>
       </c>
@@ -2373,20 +2130,17 @@
       <c r="C74" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D74" s="9">
+      <c r="D74" s="12">
+        <v>35737</v>
+      </c>
+      <c r="E74" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F74" s="9">
         <v>43.13</v>
       </c>
-      <c r="E74" s="14">
-        <v>35737</v>
-      </c>
-      <c r="F74" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G74" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="75" spans="1:6" ht="18" thickBot="1">
       <c r="A75" s="2">
         <v>3</v>
       </c>
@@ -2396,20 +2150,17 @@
       <c r="C75" s="8">
         <v>908439.2</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="12">
+        <v>33084</v>
+      </c>
+      <c r="E75" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F75" s="9">
         <v>42.86</v>
       </c>
-      <c r="E75" s="14">
-        <v>33084</v>
-      </c>
-      <c r="F75" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G75" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="76" spans="1:6" ht="18" thickBot="1">
       <c r="A76" s="2">
         <v>3.4</v>
       </c>
@@ -2419,20 +2170,17 @@
       <c r="C76" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="12">
+        <v>40692</v>
+      </c>
+      <c r="E76" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F76" s="9">
         <v>42.86</v>
       </c>
-      <c r="E76" s="14">
-        <v>40692</v>
-      </c>
-      <c r="F76" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G76" s="12">
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="77" spans="1:6" ht="18" thickBot="1">
       <c r="A77" s="2">
         <v>3.4</v>
       </c>
@@ -2442,20 +2190,17 @@
       <c r="C77" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D77" s="9">
+      <c r="D77" s="12">
+        <v>37522</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1.226</v>
+      </c>
+      <c r="F77" s="9">
         <v>42.86</v>
       </c>
-      <c r="E77" s="14">
-        <v>37522</v>
-      </c>
-      <c r="F77" s="20">
-        <v>1.226</v>
-      </c>
-      <c r="G77" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="A78" s="2">
         <v>3</v>
       </c>
@@ -2465,20 +2210,17 @@
       <c r="C78" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D78" s="9">
+      <c r="D78" s="12">
+        <v>41209</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1.244</v>
+      </c>
+      <c r="F78" s="9">
         <v>42.86</v>
       </c>
-      <c r="E78" s="14">
-        <v>41209</v>
-      </c>
-      <c r="F78" s="20">
-        <v>1.244</v>
-      </c>
-      <c r="G78" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="79" spans="1:6" ht="18" thickBot="1">
       <c r="A79" s="2">
         <v>3</v>
       </c>
@@ -2488,20 +2230,17 @@
       <c r="C79" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D79" s="9">
+      <c r="D79" s="12">
+        <v>37666</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1.244</v>
+      </c>
+      <c r="F79" s="9">
         <v>42.86</v>
       </c>
-      <c r="E79" s="14">
-        <v>37666</v>
-      </c>
-      <c r="F79" s="20">
-        <v>1.244</v>
-      </c>
-      <c r="G79" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="80" spans="1:6" ht="18" thickBot="1">
       <c r="A80" s="2">
         <v>3.1</v>
       </c>
@@ -2511,20 +2250,17 @@
       <c r="C80" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D80" s="12">
+        <v>37740</v>
+      </c>
+      <c r="E80" s="18">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F80" s="9">
         <v>42.86</v>
       </c>
-      <c r="E80" s="14">
-        <v>37740</v>
-      </c>
-      <c r="F80" s="20">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G80" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="A81" s="2">
         <v>3.1</v>
       </c>
@@ -2534,20 +2270,17 @@
       <c r="C81" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="12">
+        <v>35347</v>
+      </c>
+      <c r="E81" s="18">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F81" s="9">
         <v>42.86</v>
       </c>
-      <c r="E81" s="14">
-        <v>35347</v>
-      </c>
-      <c r="F81" s="20">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G81" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="82" spans="1:6" ht="18" thickBot="1">
       <c r="A82" s="2">
         <v>2.8</v>
       </c>
@@ -2557,20 +2290,17 @@
       <c r="C82" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="12">
+        <v>35154</v>
+      </c>
+      <c r="E82" s="18">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F82" s="9">
         <v>42.86</v>
       </c>
-      <c r="E82" s="14">
-        <v>35154</v>
-      </c>
-      <c r="F82" s="20">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G82" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="83" spans="1:6" ht="18" thickBot="1">
       <c r="A83" s="2">
         <v>2.6</v>
       </c>
@@ -2580,20 +2310,17 @@
       <c r="C83" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D83" s="9">
+      <c r="D83" s="12">
+        <v>37457</v>
+      </c>
+      <c r="E83" s="18">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F83" s="9">
         <v>42.86</v>
       </c>
-      <c r="E83" s="14">
-        <v>37457</v>
-      </c>
-      <c r="F83" s="20">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G83" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -2603,20 +2330,17 @@
       <c r="C84" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D84" s="9">
+      <c r="D84" s="12">
+        <v>38471</v>
+      </c>
+      <c r="E84" s="18">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F84" s="9">
         <v>42.86</v>
       </c>
-      <c r="E84" s="14">
-        <v>38471</v>
-      </c>
-      <c r="F84" s="20">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G84" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="85" spans="1:6" ht="18" thickBot="1">
       <c r="A85" s="2">
         <v>2.5</v>
       </c>
@@ -2626,20 +2350,17 @@
       <c r="C85" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D85" s="9">
+      <c r="D85" s="12">
+        <v>38556</v>
+      </c>
+      <c r="E85" s="18">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F85" s="9">
         <v>42.86</v>
       </c>
-      <c r="E85" s="14">
-        <v>38556</v>
-      </c>
-      <c r="F85" s="20">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G85" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="86" spans="1:6" ht="18" thickBot="1">
       <c r="A86" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2649,20 +2370,17 @@
       <c r="C86" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="12">
+        <v>37110</v>
+      </c>
+      <c r="E86" s="18">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F86" s="9">
         <v>42.86</v>
       </c>
-      <c r="E86" s="14">
-        <v>37110</v>
-      </c>
-      <c r="F86" s="20">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G86" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="87" spans="1:6" ht="18" thickBot="1">
       <c r="A87" s="2">
         <v>2.5</v>
       </c>
@@ -2672,20 +2390,17 @@
       <c r="C87" s="8">
         <v>957447.8</v>
       </c>
-      <c r="D87" s="9">
+      <c r="D87" s="12">
+        <v>34835</v>
+      </c>
+      <c r="E87" s="18">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F87" s="9">
         <v>43.64</v>
       </c>
-      <c r="E87" s="14">
-        <v>34835</v>
-      </c>
-      <c r="F87" s="20">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G87" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="88" spans="1:6" ht="18" thickBot="1">
       <c r="A88" s="2">
         <v>2.6</v>
       </c>
@@ -2695,20 +2410,17 @@
       <c r="C88" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="12">
+        <v>43704</v>
+      </c>
+      <c r="E88" s="18">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F88" s="9">
         <v>43.64</v>
       </c>
-      <c r="E88" s="14">
-        <v>43704</v>
-      </c>
-      <c r="F88" s="20">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G88" s="12">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="89" spans="1:6" ht="18" thickBot="1">
       <c r="A89" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2718,20 +2430,17 @@
       <c r="C89" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="12">
+        <v>39485</v>
+      </c>
+      <c r="E89" s="18">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F89" s="9">
         <v>43.64</v>
       </c>
-      <c r="E89" s="14">
-        <v>39485</v>
-      </c>
-      <c r="F89" s="20">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G89" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="90" spans="1:6" ht="18" thickBot="1">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -2741,20 +2450,17 @@
       <c r="C90" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="12">
+        <v>43578</v>
+      </c>
+      <c r="E90" s="18">
+        <v>1.052</v>
+      </c>
+      <c r="F90" s="9">
         <v>43.64</v>
       </c>
-      <c r="E90" s="14">
-        <v>43578</v>
-      </c>
-      <c r="F90" s="20">
-        <v>1.052</v>
-      </c>
-      <c r="G90" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="91" spans="1:6" ht="18" thickBot="1">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -2764,20 +2470,17 @@
       <c r="C91" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="12">
+        <v>40290</v>
+      </c>
+      <c r="E91" s="18">
+        <v>1.052</v>
+      </c>
+      <c r="F91" s="9">
         <v>43.64</v>
       </c>
-      <c r="E91" s="14">
-        <v>40290</v>
-      </c>
-      <c r="F91" s="20">
-        <v>1.052</v>
-      </c>
-      <c r="G91" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="92" spans="1:6" ht="18" thickBot="1">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -2787,20 +2490,17 @@
       <c r="C92" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D92" s="9">
+      <c r="D92" s="12">
+        <v>39913</v>
+      </c>
+      <c r="E92" s="18">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F92" s="9">
         <v>43.64</v>
       </c>
-      <c r="E92" s="14">
-        <v>39913</v>
-      </c>
-      <c r="F92" s="20">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G92" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="93" spans="1:6" ht="18" thickBot="1">
       <c r="A93" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -2810,20 +2510,17 @@
       <c r="C93" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="12">
+        <v>37112</v>
+      </c>
+      <c r="E93" s="18">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F93" s="9">
         <v>43.64</v>
       </c>
-      <c r="E93" s="14">
-        <v>37112</v>
-      </c>
-      <c r="F93" s="20">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G93" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="94" spans="1:6" ht="18" thickBot="1">
       <c r="A94" s="2">
         <v>2.4</v>
       </c>
@@ -2833,20 +2530,17 @@
       <c r="C94" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D94" s="9">
+      <c r="D94" s="12">
+        <v>39522</v>
+      </c>
+      <c r="E94" s="18">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F94" s="9">
         <v>43.64</v>
       </c>
-      <c r="E94" s="14">
-        <v>39522</v>
-      </c>
-      <c r="F94" s="20">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G94" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="A95" s="2">
         <v>2.4</v>
       </c>
@@ -2856,20 +2550,17 @@
       <c r="C95" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="12">
+        <v>44041</v>
+      </c>
+      <c r="E95" s="16">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F95" s="9">
         <v>43.64</v>
       </c>
-      <c r="E95" s="14">
-        <v>44041</v>
-      </c>
-      <c r="F95" s="18">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G95" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="96" spans="1:6" ht="18" thickBot="1">
       <c r="A96" s="2">
         <v>2.7</v>
       </c>
@@ -2879,20 +2570,17 @@
       <c r="C96" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D96" s="9">
+      <c r="D96" s="12">
+        <v>44871</v>
+      </c>
+      <c r="E96" s="16">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F96" s="9">
         <v>43.64</v>
       </c>
-      <c r="E96" s="14">
-        <v>44871</v>
-      </c>
-      <c r="F96" s="18">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G96" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="97" spans="1:6" ht="18" thickBot="1">
       <c r="A97" s="2">
         <v>2.5</v>
       </c>
@@ -2902,20 +2590,17 @@
       <c r="C97" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="12">
+        <v>45722</v>
+      </c>
+      <c r="E97" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="F97" s="9">
         <v>43.64</v>
       </c>
-      <c r="E97" s="14">
-        <v>45722</v>
-      </c>
-      <c r="F97" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="G97" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="98" spans="1:6" ht="18" thickBot="1">
       <c r="A98" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -2925,20 +2610,17 @@
       <c r="C98" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D98" s="9">
+      <c r="D98" s="12">
+        <v>41865</v>
+      </c>
+      <c r="E98" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="F98" s="9">
         <v>43.64</v>
       </c>
-      <c r="E98" s="14">
-        <v>41865</v>
-      </c>
-      <c r="F98" s="18">
-        <v>0.81</v>
-      </c>
-      <c r="G98" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="A99" s="2">
         <v>2.1</v>
       </c>
@@ -2948,20 +2630,17 @@
       <c r="C99" s="8">
         <v>1005601.5</v>
       </c>
-      <c r="D99" s="9">
+      <c r="D99" s="12">
+        <v>36719</v>
+      </c>
+      <c r="E99" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="F99" s="9">
         <v>44.38</v>
       </c>
-      <c r="E99" s="14">
-        <v>36719</v>
-      </c>
-      <c r="F99" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="G99" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="100" spans="1:6" ht="18" thickBot="1">
       <c r="A100" s="3">
         <v>1.7</v>
       </c>
@@ -2971,20 +2650,17 @@
       <c r="C100" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D100" s="9">
+      <c r="D100" s="12">
+        <v>46747</v>
+      </c>
+      <c r="E100" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="F100" s="9">
         <v>44.38</v>
       </c>
-      <c r="E100" s="14">
-        <v>46747</v>
-      </c>
-      <c r="F100" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="G100" s="12">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="101" spans="1:6" ht="18" thickBot="1">
       <c r="A101" s="3">
         <v>2.2000000000000002</v>
       </c>
@@ -2994,20 +2670,17 @@
       <c r="C101" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D101" s="9">
+      <c r="D101" s="12">
+        <v>39495</v>
+      </c>
+      <c r="E101" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F101" s="9">
         <v>44.38</v>
       </c>
-      <c r="E101" s="14">
-        <v>39495</v>
-      </c>
-      <c r="F101" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G101" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="A102" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3017,20 +2690,17 @@
       <c r="C102" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="12">
+        <v>41318</v>
+      </c>
+      <c r="E102" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F102" s="9">
         <v>44.38</v>
       </c>
-      <c r="E102" s="14">
-        <v>41318</v>
-      </c>
-      <c r="F102" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G102" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="103" spans="1:6" ht="18" thickBot="1">
       <c r="A103" s="4">
         <v>2.5</v>
       </c>
@@ -3040,20 +2710,17 @@
       <c r="C103" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D103" s="9">
+      <c r="D103" s="12">
+        <v>38783</v>
+      </c>
+      <c r="E103" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F103" s="9">
         <v>44.38</v>
       </c>
-      <c r="E103" s="14">
-        <v>38783</v>
-      </c>
-      <c r="F103" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G103" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="104" spans="1:6" ht="18" thickBot="1">
       <c r="A104" s="4">
         <v>2.2999999999999998</v>
       </c>
@@ -3063,20 +2730,17 @@
       <c r="C104" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="12">
+        <v>37598</v>
+      </c>
+      <c r="E104" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F104" s="9">
         <v>44.38</v>
       </c>
-      <c r="E104" s="14">
-        <v>37598</v>
-      </c>
-      <c r="F104" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G104" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="105" spans="1:6" ht="18" thickBot="1">
       <c r="A105" s="4">
         <v>2.5</v>
       </c>
@@ -3086,20 +2750,17 @@
       <c r="C105" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D105" s="9">
+      <c r="D105" s="12">
+        <v>35035</v>
+      </c>
+      <c r="E105" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F105" s="9">
         <v>44.38</v>
       </c>
-      <c r="E105" s="14">
-        <v>35035</v>
-      </c>
-      <c r="F105" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G105" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="106" spans="1:6" ht="18" thickBot="1">
       <c r="A106" s="4">
         <v>2.5</v>
       </c>
@@ -3109,20 +2770,17 @@
       <c r="C106" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D106" s="9">
+      <c r="D106" s="12">
+        <v>38042</v>
+      </c>
+      <c r="E106" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F106" s="9">
         <v>44.38</v>
       </c>
-      <c r="E106" s="14">
-        <v>38042</v>
-      </c>
-      <c r="F106" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G106" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="107" spans="1:6" ht="18" thickBot="1">
       <c r="A107" s="4">
         <v>2</v>
       </c>
@@ -3132,20 +2790,17 @@
       <c r="C107" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="12">
+        <v>37787</v>
+      </c>
+      <c r="E107" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F107" s="9">
         <v>44.38</v>
       </c>
-      <c r="E107" s="14">
-        <v>37787</v>
-      </c>
-      <c r="F107" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G107" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="108" spans="1:6" ht="18" thickBot="1">
       <c r="A108" s="4">
         <v>2.2999999999999998</v>
       </c>
@@ -3155,20 +2810,17 @@
       <c r="C108" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="12">
+        <v>40037</v>
+      </c>
+      <c r="E108" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F108" s="9">
         <v>44.38</v>
       </c>
-      <c r="E108" s="14">
-        <v>40037</v>
-      </c>
-      <c r="F108" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G108" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="109" spans="1:6" ht="18" thickBot="1">
       <c r="A109" s="4">
         <v>3</v>
       </c>
@@ -3178,20 +2830,17 @@
       <c r="C109" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="12">
+        <v>39886</v>
+      </c>
+      <c r="E109" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F109" s="9">
         <v>44.38</v>
       </c>
-      <c r="E109" s="14">
-        <v>39886</v>
-      </c>
-      <c r="F109" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G109" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="110" spans="1:6" ht="18" thickBot="1">
       <c r="A110" s="4">
         <v>3.5</v>
       </c>
@@ -3201,20 +2850,17 @@
       <c r="C110" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D110" s="9">
+      <c r="D110" s="12">
+        <v>36473</v>
+      </c>
+      <c r="E110" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F110" s="9">
         <v>44.38</v>
       </c>
-      <c r="E110" s="14">
-        <v>36473</v>
-      </c>
-      <c r="F110" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G110" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="111" spans="1:6" ht="18" thickBot="1">
       <c r="A111" s="4">
         <v>3.6</v>
       </c>
@@ -3224,20 +2870,17 @@
       <c r="C111" s="8">
         <v>1089660.2</v>
       </c>
-      <c r="D111" s="9">
+      <c r="D111" s="12">
+        <v>34691</v>
+      </c>
+      <c r="E111" s="19">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="F111" s="9">
         <v>43.26</v>
       </c>
-      <c r="E111" s="14">
-        <v>34691</v>
-      </c>
-      <c r="F111" s="21">
-        <v>1.2589999999999999</v>
-      </c>
-      <c r="G111" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="112" spans="1:6" ht="18" thickBot="1">
       <c r="A112" s="4">
         <v>3.9</v>
       </c>
@@ -3247,20 +2890,17 @@
       <c r="C112" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D112" s="9">
+      <c r="D112" s="12">
+        <v>44149</v>
+      </c>
+      <c r="E112" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F112" s="9">
         <v>43.28</v>
       </c>
-      <c r="E112" s="14">
-        <v>44149</v>
-      </c>
-      <c r="F112" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G112" s="12">
-        <v>-1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="A113" s="4">
         <v>3.6</v>
       </c>
@@ -3270,20 +2910,17 @@
       <c r="C113" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="12">
+        <v>36681</v>
+      </c>
+      <c r="E113" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F113" s="9">
         <v>43.29</v>
       </c>
-      <c r="E113" s="14">
-        <v>36681</v>
-      </c>
-      <c r="F113" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G113" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="114" spans="1:6" ht="18" thickBot="1">
       <c r="A114" s="4">
         <v>3.9</v>
       </c>
@@ -3293,20 +2930,17 @@
       <c r="C114" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="12">
+        <v>39834</v>
+      </c>
+      <c r="E114" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F114" s="9">
         <v>43.3</v>
       </c>
-      <c r="E114" s="14">
-        <v>39834</v>
-      </c>
-      <c r="F114" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G114" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="115" spans="1:6" ht="18" thickBot="1">
       <c r="A115" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3316,20 +2950,17 @@
       <c r="C115" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D115" s="9">
+      <c r="D115" s="12">
+        <v>37539</v>
+      </c>
+      <c r="E115" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F115" s="9">
         <v>43.31</v>
       </c>
-      <c r="E115" s="14">
-        <v>37539</v>
-      </c>
-      <c r="F115" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G115" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="116" spans="1:6" ht="18" thickBot="1">
       <c r="A116" s="4">
         <v>4.9000000000000004</v>
       </c>
@@ -3339,20 +2970,17 @@
       <c r="C116" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="12">
+        <v>35864</v>
+      </c>
+      <c r="E116" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F116" s="9">
         <v>43.31</v>
       </c>
-      <c r="E116" s="14">
-        <v>35864</v>
-      </c>
-      <c r="F116" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G116" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="A117" s="4">
         <v>5.5</v>
       </c>
@@ -3362,20 +2990,17 @@
       <c r="C117" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D117" s="9">
+      <c r="D117" s="12">
+        <v>34122</v>
+      </c>
+      <c r="E117" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F117" s="9">
         <v>43.32</v>
       </c>
-      <c r="E117" s="14">
-        <v>34122</v>
-      </c>
-      <c r="F117" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G117" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="118" spans="1:6" ht="18" thickBot="1">
       <c r="A118" s="4">
         <v>5.9</v>
       </c>
@@ -3385,20 +3010,17 @@
       <c r="C118" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="12">
+        <v>35779</v>
+      </c>
+      <c r="E118" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F118" s="9">
         <v>43.34</v>
       </c>
-      <c r="E118" s="14">
-        <v>35779</v>
-      </c>
-      <c r="F118" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G118" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="119" spans="1:6" ht="18" thickBot="1">
       <c r="A119" s="4">
         <v>5.6</v>
       </c>
@@ -3408,20 +3030,17 @@
       <c r="C119" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D119" s="9">
+      <c r="D119" s="12">
+        <v>36169</v>
+      </c>
+      <c r="E119" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F119" s="9">
         <v>43.35</v>
       </c>
-      <c r="E119" s="14">
-        <v>36169</v>
-      </c>
-      <c r="F119" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G119" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="A120" s="4">
         <v>5.0999999999999996</v>
       </c>
@@ -3431,20 +3050,17 @@
       <c r="C120" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D120" s="9">
+      <c r="D120" s="12">
+        <v>38187</v>
+      </c>
+      <c r="E120" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F120" s="9">
         <v>43.36</v>
       </c>
-      <c r="E120" s="14">
-        <v>38187</v>
-      </c>
-      <c r="F120" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G120" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="121" spans="1:6" ht="18" thickBot="1">
       <c r="A121" s="4">
         <v>4.8</v>
       </c>
@@ -3454,20 +3070,17 @@
       <c r="C121" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="12">
+        <v>37737</v>
+      </c>
+      <c r="E121" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F121" s="9">
         <v>43.37</v>
       </c>
-      <c r="E121" s="14">
-        <v>37737</v>
-      </c>
-      <c r="F121" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G121" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="122" spans="1:6" ht="18" thickBot="1">
       <c r="A122" s="4">
         <v>4.5</v>
       </c>
@@ -3477,20 +3090,17 @@
       <c r="C122" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="12">
+        <v>35172</v>
+      </c>
+      <c r="E122" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F122" s="9">
         <v>43.39</v>
       </c>
-      <c r="E122" s="14">
-        <v>35172</v>
-      </c>
-      <c r="F122" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G122" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="123" spans="1:6" ht="18" thickBot="1">
       <c r="A123" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3500,20 +3110,17 @@
       <c r="C123" s="8">
         <v>1154216.5</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="12">
+        <v>33616</v>
+      </c>
+      <c r="E123" s="19">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="F123" s="9">
         <v>43.4</v>
       </c>
-      <c r="E123" s="14">
-        <v>33616</v>
-      </c>
-      <c r="F123" s="21">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G123" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="124" spans="1:6" ht="18" thickBot="1">
       <c r="A124" s="4">
         <v>3.7</v>
       </c>
@@ -3523,20 +3130,17 @@
       <c r="C124" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="12">
+        <v>42936</v>
+      </c>
+      <c r="E124" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F124" s="9">
         <v>43.44</v>
       </c>
-      <c r="E124" s="14">
-        <v>42936</v>
-      </c>
-      <c r="F124" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G124" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="125" spans="1:6" ht="18" thickBot="1">
       <c r="A125" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -3546,20 +3150,17 @@
       <c r="C125" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="12">
+        <v>36639</v>
+      </c>
+      <c r="E125" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F125" s="9">
         <v>43.44</v>
       </c>
-      <c r="E125" s="14">
-        <v>36639</v>
-      </c>
-      <c r="F125" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G125" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="126" spans="1:6" ht="18" thickBot="1">
       <c r="A126" s="4">
         <v>3.9</v>
       </c>
@@ -3569,20 +3170,17 @@
       <c r="C126" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D126" s="9">
+      <c r="D126" s="12">
+        <v>40975</v>
+      </c>
+      <c r="E126" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F126" s="9">
         <v>43.46</v>
       </c>
-      <c r="E126" s="14">
-        <v>40975</v>
-      </c>
-      <c r="F126" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G126" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="127" spans="1:6" ht="18" thickBot="1">
       <c r="A127" s="4">
         <v>3.6</v>
       </c>
@@ -3592,20 +3190,17 @@
       <c r="C127" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="12">
+        <v>38336</v>
+      </c>
+      <c r="E127" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F127" s="9">
         <v>43.47</v>
       </c>
-      <c r="E127" s="14">
-        <v>38336</v>
-      </c>
-      <c r="F127" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G127" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="128" spans="1:6" ht="18" thickBot="1">
       <c r="A128" s="4">
         <v>2.7</v>
       </c>
@@ -3615,20 +3210,17 @@
       <c r="C128" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="12">
+        <v>37005</v>
+      </c>
+      <c r="E128" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F128" s="9">
         <v>43.48</v>
       </c>
-      <c r="E128" s="14">
-        <v>37005</v>
-      </c>
-      <c r="F128" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G128" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="129" spans="1:6" ht="18" thickBot="1">
       <c r="A129" s="4">
         <v>2</v>
       </c>
@@ -3638,20 +3230,17 @@
       <c r="C129" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="12">
+        <v>36028</v>
+      </c>
+      <c r="E129" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F129" s="9">
         <v>43.49</v>
       </c>
-      <c r="E129" s="14">
-        <v>36028</v>
-      </c>
-      <c r="F129" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G129" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="130" spans="1:6" ht="18" thickBot="1">
       <c r="A130" s="4">
         <v>1.6</v>
       </c>
@@ -3661,20 +3250,17 @@
       <c r="C130" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D130" s="9">
+      <c r="D130" s="12">
+        <v>37106</v>
+      </c>
+      <c r="E130" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F130" s="9">
         <v>43.5</v>
       </c>
-      <c r="E130" s="14">
-        <v>37106</v>
-      </c>
-      <c r="F130" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G130" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="A131" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3684,20 +3270,17 @@
       <c r="C131" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D131" s="9">
+      <c r="D131" s="12">
+        <v>38392</v>
+      </c>
+      <c r="E131" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F131" s="9">
         <v>43.51</v>
       </c>
-      <c r="E131" s="14">
-        <v>38392</v>
-      </c>
-      <c r="F131" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G131" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="132" spans="1:6" ht="18" thickBot="1">
       <c r="A132" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -3707,20 +3290,17 @@
       <c r="C132" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D132" s="9">
+      <c r="D132" s="12">
+        <v>42294</v>
+      </c>
+      <c r="E132" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F132" s="9">
         <v>43.52</v>
       </c>
-      <c r="E132" s="14">
-        <v>42294</v>
-      </c>
-      <c r="F132" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G132" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="133" spans="1:6" ht="18" thickBot="1">
       <c r="A133" s="4">
         <v>2</v>
       </c>
@@ -3730,20 +3310,17 @@
       <c r="C133" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="12">
+        <v>43625</v>
+      </c>
+      <c r="E133" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F133" s="9">
         <v>43.52</v>
       </c>
-      <c r="E133" s="14">
-        <v>43625</v>
-      </c>
-      <c r="F133" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G133" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="134" spans="1:6" ht="18" thickBot="1">
       <c r="A134" s="4">
         <v>2.4</v>
       </c>
@@ -3753,20 +3330,17 @@
       <c r="C134" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="12">
+        <v>41318</v>
+      </c>
+      <c r="E134" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F134" s="9">
         <v>43.54</v>
       </c>
-      <c r="E134" s="14">
-        <v>41318</v>
-      </c>
-      <c r="F134" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G134" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="A135" s="4">
         <v>2.8</v>
       </c>
@@ -3776,20 +3350,17 @@
       <c r="C135" s="8">
         <v>1205347.7</v>
       </c>
-      <c r="D135" s="9">
+      <c r="D135" s="12">
+        <v>35517</v>
+      </c>
+      <c r="E135" s="19">
+        <v>1.149</v>
+      </c>
+      <c r="F135" s="9">
         <v>43.56</v>
       </c>
-      <c r="E135" s="14">
-        <v>35517</v>
-      </c>
-      <c r="F135" s="21">
-        <v>1.149</v>
-      </c>
-      <c r="G135" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="136" spans="1:6" ht="18" thickBot="1">
       <c r="A136" s="4">
         <v>3.5</v>
       </c>
@@ -3799,20 +3370,17 @@
       <c r="C136" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="12">
+        <v>47577</v>
+      </c>
+      <c r="E136" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F136" s="9">
         <v>43.58</v>
       </c>
-      <c r="E136" s="14">
-        <v>47577</v>
-      </c>
-      <c r="F136" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G136" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="137" spans="1:6" ht="18" thickBot="1">
       <c r="A137" s="4">
         <v>3</v>
       </c>
@@ -3822,20 +3390,17 @@
       <c r="C137" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="12">
+        <v>38160</v>
+      </c>
+      <c r="E137" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F137" s="9">
         <v>43.6</v>
       </c>
-      <c r="E137" s="14">
-        <v>38160</v>
-      </c>
-      <c r="F137" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G137" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="138" spans="1:6" ht="18" thickBot="1">
       <c r="A138" s="4">
         <v>2.5</v>
       </c>
@@ -3845,20 +3410,17 @@
       <c r="C138" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="12">
+        <v>43260</v>
+      </c>
+      <c r="E138" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F138" s="9">
         <v>43.61</v>
       </c>
-      <c r="E138" s="14">
-        <v>43260</v>
-      </c>
-      <c r="F138" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G138" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="139" spans="1:6" ht="18" thickBot="1">
       <c r="A139" s="4">
         <v>2.6</v>
       </c>
@@ -3868,20 +3430,17 @@
       <c r="C139" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="12">
+        <v>40376</v>
+      </c>
+      <c r="E139" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F139" s="9">
         <v>43.61</v>
       </c>
-      <c r="E139" s="14">
-        <v>40376</v>
-      </c>
-      <c r="F139" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G139" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="140" spans="1:6" ht="18" thickBot="1">
       <c r="A140" s="4">
         <v>2.7</v>
       </c>
@@ -3891,20 +3450,17 @@
       <c r="C140" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="12">
+        <v>38958</v>
+      </c>
+      <c r="E140" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F140" s="9">
         <v>43.63</v>
       </c>
-      <c r="E140" s="14">
-        <v>38958</v>
-      </c>
-      <c r="F140" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G140" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="141" spans="1:6" ht="18" thickBot="1">
       <c r="A141" s="4">
         <v>2.7</v>
       </c>
@@ -3914,20 +3470,17 @@
       <c r="C141" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D141" s="9">
+      <c r="D141" s="12">
+        <v>36766</v>
+      </c>
+      <c r="E141" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F141" s="9">
         <v>43.64</v>
       </c>
-      <c r="E141" s="14">
-        <v>36766</v>
-      </c>
-      <c r="F141" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G141" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="142" spans="1:6" ht="18" thickBot="1">
       <c r="A142" s="4">
         <v>2.5</v>
       </c>
@@ -3937,20 +3490,17 @@
       <c r="C142" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="12">
+        <v>38168</v>
+      </c>
+      <c r="E142" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F142" s="9">
         <v>43.65</v>
       </c>
-      <c r="E142" s="14">
-        <v>38168</v>
-      </c>
-      <c r="F142" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G142" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="143" spans="1:6" ht="18" thickBot="1">
       <c r="A143" s="4">
         <v>2.7</v>
       </c>
@@ -3960,20 +3510,17 @@
       <c r="C143" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="12">
+        <v>39360</v>
+      </c>
+      <c r="E143" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F143" s="9">
         <v>43.65</v>
       </c>
-      <c r="E143" s="14">
-        <v>39360</v>
-      </c>
-      <c r="F143" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G143" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="144" spans="1:6" ht="18" thickBot="1">
       <c r="A144" s="4">
         <v>3.4</v>
       </c>
@@ -3983,20 +3530,17 @@
       <c r="C144" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D144" s="9">
+      <c r="D144" s="12">
+        <v>38963</v>
+      </c>
+      <c r="E144" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F144" s="9">
         <v>43.74</v>
       </c>
-      <c r="E144" s="14">
-        <v>38963</v>
-      </c>
-      <c r="F144" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G144" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="145" spans="1:6" ht="18" thickBot="1">
       <c r="A145" s="4">
         <v>3.7</v>
       </c>
@@ -4006,20 +3550,17 @@
       <c r="C145" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D145" s="9">
+      <c r="D145" s="12">
+        <v>38359</v>
+      </c>
+      <c r="E145" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F145" s="9">
         <v>43.74</v>
       </c>
-      <c r="E145" s="14">
-        <v>38359</v>
-      </c>
-      <c r="F145" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G145" s="12">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="146" spans="1:6" ht="18" thickBot="1">
       <c r="A146" s="4">
         <v>3</v>
       </c>
@@ -4029,20 +3570,17 @@
       <c r="C146" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="12">
+        <v>37328</v>
+      </c>
+      <c r="E146" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F146" s="9">
         <v>44.83</v>
       </c>
-      <c r="E146" s="14">
-        <v>37328</v>
-      </c>
-      <c r="F146" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G146" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="147" spans="1:6" ht="18" thickBot="1">
       <c r="A147" s="4">
         <v>3</v>
       </c>
@@ -4052,20 +3590,17 @@
       <c r="C147" s="8">
         <v>1322611.2</v>
       </c>
-      <c r="D147" s="9">
+      <c r="D147" s="12">
+        <v>33990</v>
+      </c>
+      <c r="E147" s="19">
+        <v>1.226</v>
+      </c>
+      <c r="F147" s="9">
         <v>43.76</v>
       </c>
-      <c r="E147" s="14">
-        <v>33990</v>
-      </c>
-      <c r="F147" s="21">
-        <v>1.226</v>
-      </c>
-      <c r="G147" s="12">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="148" spans="1:6" ht="18" thickBot="1">
       <c r="A148" s="4">
         <v>3.4</v>
       </c>
@@ -4075,20 +3610,17 @@
       <c r="C148" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D148" s="12">
+        <v>44984</v>
+      </c>
+      <c r="E148" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F148" s="9">
         <v>43.77</v>
       </c>
-      <c r="E148" s="14">
-        <v>44984</v>
-      </c>
-      <c r="F148" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G148" s="12">
-        <v>-1.07</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="149" spans="1:6" ht="18" thickBot="1">
       <c r="A149" s="4">
         <v>3.9</v>
       </c>
@@ -4098,20 +3630,17 @@
       <c r="C149" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D149" s="9">
+      <c r="D149" s="12">
+        <v>40609</v>
+      </c>
+      <c r="E149" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F149" s="9">
         <v>43.77</v>
       </c>
-      <c r="E149" s="14">
-        <v>40609</v>
-      </c>
-      <c r="F149" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G149" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="A150" s="4">
         <v>4.0999999999999996</v>
       </c>
@@ -4121,20 +3650,17 @@
       <c r="C150" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D150" s="9">
+      <c r="D150" s="12">
+        <v>43209</v>
+      </c>
+      <c r="E150" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F150" s="9">
         <v>43.77</v>
       </c>
-      <c r="E150" s="14">
-        <v>43209</v>
-      </c>
-      <c r="F150" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G150" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="151" spans="1:6" ht="18" thickBot="1">
       <c r="A151" s="4">
         <v>3.8</v>
       </c>
@@ -4144,20 +3670,17 @@
       <c r="C151" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="12">
+        <v>40094</v>
+      </c>
+      <c r="E151" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F151" s="9">
         <v>43.76</v>
       </c>
-      <c r="E151" s="14">
-        <v>40094</v>
-      </c>
-      <c r="F151" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G151" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="152" spans="1:6" ht="18" thickBot="1">
       <c r="A152" s="4">
         <v>3.9</v>
       </c>
@@ -4167,20 +3690,17 @@
       <c r="C152" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="12">
+        <v>39388</v>
+      </c>
+      <c r="E152" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F152" s="9">
         <v>43.75</v>
       </c>
-      <c r="E152" s="14">
-        <v>39388</v>
-      </c>
-      <c r="F152" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G152" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="153" spans="1:6" ht="18" thickBot="1">
       <c r="A153" s="4">
         <v>4.2</v>
       </c>
@@ -4190,20 +3710,17 @@
       <c r="C153" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D153" s="9">
+      <c r="D153" s="12">
+        <v>38170</v>
+      </c>
+      <c r="E153" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F153" s="9">
         <v>43.75</v>
       </c>
-      <c r="E153" s="14">
-        <v>38170</v>
-      </c>
-      <c r="F153" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G153" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="A154" s="4">
         <v>4.5</v>
       </c>
@@ -4213,20 +3730,17 @@
       <c r="C154" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D154" s="9">
+      <c r="D154" s="12">
+        <v>40127</v>
+      </c>
+      <c r="E154" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F154" s="9">
         <v>43.75</v>
       </c>
-      <c r="E154" s="14">
-        <v>40127</v>
-      </c>
-      <c r="F154" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G154" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="155" spans="1:6" ht="18" thickBot="1">
       <c r="A155" s="4">
         <v>4.7</v>
       </c>
@@ -4236,20 +3750,17 @@
       <c r="C155" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D155" s="9">
+      <c r="D155" s="12">
+        <v>41455</v>
+      </c>
+      <c r="E155" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F155" s="9">
         <v>43.74</v>
       </c>
-      <c r="E155" s="14">
-        <v>41455</v>
-      </c>
-      <c r="F155" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G155" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="156" spans="1:6" ht="18" thickBot="1">
       <c r="A156" s="4">
         <v>3.8</v>
       </c>
@@ -4259,20 +3770,17 @@
       <c r="C156" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="12">
+        <v>41735</v>
+      </c>
+      <c r="E156" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F156" s="9">
         <v>43.74</v>
       </c>
-      <c r="E156" s="14">
-        <v>41735</v>
-      </c>
-      <c r="F156" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G156" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="157" spans="1:6" ht="18" thickBot="1">
       <c r="A157" s="4">
         <v>3.6</v>
       </c>
@@ -4282,20 +3790,17 @@
       <c r="C157" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D157" s="9">
+      <c r="D157" s="12">
+        <v>41889</v>
+      </c>
+      <c r="E157" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F157" s="9">
         <v>43.73</v>
       </c>
-      <c r="E157" s="14">
-        <v>41889</v>
-      </c>
-      <c r="F157" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G157" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="158" spans="1:6" ht="18" thickBot="1">
       <c r="A158" s="4">
         <v>4.2</v>
       </c>
@@ -4305,20 +3810,17 @@
       <c r="C158" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D158" s="12">
+        <v>38579</v>
+      </c>
+      <c r="E158" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F158" s="9">
         <v>43.73</v>
       </c>
-      <c r="E158" s="14">
-        <v>38579</v>
-      </c>
-      <c r="F158" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G158" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="159" spans="1:6" ht="18" thickBot="1">
       <c r="A159" s="4">
         <v>4.2</v>
       </c>
@@ -4328,20 +3830,17 @@
       <c r="C159" s="8">
         <v>1388937.2</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="12">
+        <v>34311</v>
+      </c>
+      <c r="E159" s="19">
+        <v>1.244</v>
+      </c>
+      <c r="F159" s="9">
         <v>43.74</v>
       </c>
-      <c r="E159" s="14">
-        <v>34311</v>
-      </c>
-      <c r="F159" s="21">
-        <v>1.244</v>
-      </c>
-      <c r="G159" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="160" spans="1:6" ht="18" thickBot="1">
       <c r="A160" s="4">
         <v>3.4</v>
       </c>
@@ -4351,20 +3850,17 @@
       <c r="C160" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="12">
+        <v>44247</v>
+      </c>
+      <c r="E160" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F160" s="9">
         <v>43.75</v>
       </c>
-      <c r="E160" s="14">
-        <v>44247</v>
-      </c>
-      <c r="F160" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G160" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="161" spans="1:6" ht="18" thickBot="1">
       <c r="A161" s="4">
         <v>3</v>
       </c>
@@ -4374,20 +3870,17 @@
       <c r="C161" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D161" s="9">
+      <c r="D161" s="12">
+        <v>36645</v>
+      </c>
+      <c r="E161" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F161" s="9">
         <v>43.75</v>
       </c>
-      <c r="E161" s="14">
-        <v>36645</v>
-      </c>
-      <c r="F161" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G161" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="162" spans="1:6" ht="18" thickBot="1">
       <c r="A162" s="4">
         <v>2.7</v>
       </c>
@@ -4397,20 +3890,17 @@
       <c r="C162" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D162" s="9">
+      <c r="D162" s="12">
+        <v>38540</v>
+      </c>
+      <c r="E162" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F162" s="9">
         <v>43.75</v>
       </c>
-      <c r="E162" s="14">
-        <v>38540</v>
-      </c>
-      <c r="F162" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G162" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="A163" s="4">
         <v>2.6</v>
       </c>
@@ -4420,20 +3910,17 @@
       <c r="C163" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D163" s="9">
+      <c r="D163" s="12">
+        <v>36738</v>
+      </c>
+      <c r="E163" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F163" s="9">
         <v>43.75</v>
       </c>
-      <c r="E163" s="14">
-        <v>36738</v>
-      </c>
-      <c r="F163" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G163" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="164" spans="1:6" ht="18" thickBot="1">
       <c r="A164" s="4">
         <v>2.5</v>
       </c>
@@ -4443,20 +3930,17 @@
       <c r="C164" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D164" s="9">
+      <c r="D164" s="12">
+        <v>35626</v>
+      </c>
+      <c r="E164" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F164" s="9">
         <v>43.75</v>
       </c>
-      <c r="E164" s="14">
-        <v>35626</v>
-      </c>
-      <c r="F164" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G164" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="165" spans="1:6" ht="18" thickBot="1">
       <c r="A165" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -4466,20 +3950,17 @@
       <c r="C165" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D165" s="9">
+      <c r="D165" s="12">
+        <v>33154</v>
+      </c>
+      <c r="E165" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F165" s="9">
         <v>43.75</v>
       </c>
-      <c r="E165" s="14">
-        <v>33154</v>
-      </c>
-      <c r="F165" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G165" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="166" spans="1:6" ht="18" thickBot="1">
       <c r="A166" s="4">
         <v>1.5</v>
       </c>
@@ -4489,20 +3970,17 @@
       <c r="C166" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D166" s="9">
+      <c r="D166" s="12">
+        <v>36188</v>
+      </c>
+      <c r="E166" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F166" s="9">
         <v>43.76</v>
       </c>
-      <c r="E166" s="14">
-        <v>36188</v>
-      </c>
-      <c r="F166" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G166" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="167" spans="1:6" ht="18" thickBot="1">
       <c r="A167" s="4">
         <v>1.3</v>
       </c>
@@ -4512,20 +3990,17 @@
       <c r="C167" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D167" s="9">
+      <c r="D167" s="12">
+        <v>36400</v>
+      </c>
+      <c r="E167" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F167" s="9">
         <v>43.75</v>
       </c>
-      <c r="E167" s="14">
-        <v>36400</v>
-      </c>
-      <c r="F167" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G167" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="168" spans="1:6" ht="18" thickBot="1">
       <c r="A168" s="4">
         <v>2.1</v>
       </c>
@@ -4535,20 +4010,17 @@
       <c r="C168" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="12">
+        <v>37063</v>
+      </c>
+      <c r="E168" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F168" s="9">
         <v>43.75</v>
       </c>
-      <c r="E168" s="14">
-        <v>37063</v>
-      </c>
-      <c r="F168" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G168" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="169" spans="1:6" ht="18" thickBot="1">
       <c r="A169" s="4">
         <v>2.1</v>
       </c>
@@ -4558,20 +4030,17 @@
       <c r="C169" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D169" s="9">
+      <c r="D169" s="12">
+        <v>36055</v>
+      </c>
+      <c r="E169" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F169" s="9">
         <v>43.74</v>
       </c>
-      <c r="E169" s="14">
-        <v>36055</v>
-      </c>
-      <c r="F169" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G169" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="170" spans="1:6" ht="18" thickBot="1">
       <c r="A170" s="4">
         <v>1.6</v>
       </c>
@@ -4581,20 +4050,17 @@
       <c r="C170" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D170" s="9">
+      <c r="D170" s="12">
+        <v>33827</v>
+      </c>
+      <c r="E170" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F170" s="9">
         <v>43.75</v>
       </c>
-      <c r="E170" s="14">
-        <v>33827</v>
-      </c>
-      <c r="F170" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G170" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="171" spans="1:6" ht="18" thickBot="1">
       <c r="A171" s="4">
         <v>1.4</v>
       </c>
@@ -4604,20 +4070,17 @@
       <c r="C171" s="8">
         <v>1440111.4</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="12">
+        <v>31972</v>
+      </c>
+      <c r="E171" s="19">
+        <v>1.2969999999999999</v>
+      </c>
+      <c r="F171" s="9">
         <v>43.76</v>
       </c>
-      <c r="E171" s="14">
-        <v>31972</v>
-      </c>
-      <c r="F171" s="21">
-        <v>1.2969999999999999</v>
-      </c>
-      <c r="G171" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="172" spans="1:6" ht="18" thickBot="1">
       <c r="A172" s="4">
         <v>1.6</v>
       </c>
@@ -4627,20 +4090,17 @@
       <c r="C172" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D172" s="9">
+      <c r="D172" s="12">
+        <v>41229</v>
+      </c>
+      <c r="E172" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F172" s="9">
         <v>43.77</v>
       </c>
-      <c r="E172" s="14">
-        <v>41229</v>
-      </c>
-      <c r="F172" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G172" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="173" spans="1:6" ht="18" thickBot="1">
       <c r="A173" s="4">
         <v>1.6</v>
       </c>
@@ -4650,20 +4110,17 @@
       <c r="C173" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D173" s="9">
+      <c r="D173" s="12">
+        <v>36754</v>
+      </c>
+      <c r="E173" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F173" s="9">
         <v>43.77</v>
       </c>
-      <c r="E173" s="14">
-        <v>36754</v>
-      </c>
-      <c r="F173" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G173" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="174" spans="1:6" ht="18" thickBot="1">
       <c r="A174" s="4">
         <v>1.5</v>
       </c>
@@ -4673,20 +4130,17 @@
       <c r="C174" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D174" s="9">
+      <c r="D174" s="12">
+        <v>38021</v>
+      </c>
+      <c r="E174" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F174" s="9">
         <v>43.77</v>
       </c>
-      <c r="E174" s="14">
-        <v>38021</v>
-      </c>
-      <c r="F174" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G174" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="175" spans="1:6" ht="18" thickBot="1">
       <c r="A175" s="4">
         <v>1.3</v>
       </c>
@@ -4696,20 +4150,17 @@
       <c r="C175" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D175" s="9">
+      <c r="D175" s="12">
+        <v>37183</v>
+      </c>
+      <c r="E175" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F175" s="9">
         <v>43.77</v>
       </c>
-      <c r="E175" s="14">
-        <v>37183</v>
-      </c>
-      <c r="F175" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G175" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="176" spans="1:6" ht="18" thickBot="1">
       <c r="A176" s="4">
         <v>1.2</v>
       </c>
@@ -4719,20 +4170,17 @@
       <c r="C176" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D176" s="9">
+      <c r="D176" s="12">
+        <v>35749</v>
+      </c>
+      <c r="E176" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F176" s="9">
         <v>43.77</v>
       </c>
-      <c r="E176" s="14">
-        <v>35749</v>
-      </c>
-      <c r="F176" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G176" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="177" spans="1:6" ht="18" thickBot="1">
       <c r="A177" s="4">
         <v>1.2</v>
       </c>
@@ -4742,20 +4190,17 @@
       <c r="C177" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D177" s="9">
+      <c r="D177" s="12">
+        <v>34171</v>
+      </c>
+      <c r="E177" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F177" s="9">
         <v>43.77</v>
       </c>
-      <c r="E177" s="14">
-        <v>34171</v>
-      </c>
-      <c r="F177" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G177" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="A178" s="4">
         <v>1.6</v>
       </c>
@@ -4765,20 +4210,17 @@
       <c r="C178" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="12">
+        <v>36390</v>
+      </c>
+      <c r="E178" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F178" s="9">
         <v>43.78</v>
       </c>
-      <c r="E178" s="14">
-        <v>36390</v>
-      </c>
-      <c r="F178" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G178" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="179" spans="1:6" ht="18" thickBot="1">
       <c r="A179" s="4">
         <v>1.5</v>
       </c>
@@ -4788,20 +4230,17 @@
       <c r="C179" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D179" s="9">
+      <c r="D179" s="12">
+        <v>36539</v>
+      </c>
+      <c r="E179" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F179" s="9">
         <v>43.78</v>
       </c>
-      <c r="E179" s="14">
-        <v>36539</v>
-      </c>
-      <c r="F179" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G179" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="180" spans="1:6" ht="18" thickBot="1">
       <c r="A180" s="4">
         <v>1</v>
       </c>
@@ -4811,20 +4250,17 @@
       <c r="C180" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="12">
+        <v>37879</v>
+      </c>
+      <c r="E180" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F180" s="9">
         <v>43.77</v>
       </c>
-      <c r="E180" s="14">
-        <v>37879</v>
-      </c>
-      <c r="F180" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G180" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="181" spans="1:6" ht="18" thickBot="1">
       <c r="A181" s="4">
         <v>0.9</v>
       </c>
@@ -4834,20 +4270,17 @@
       <c r="C181" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D181" s="9">
+      <c r="D181" s="12">
+        <v>36450</v>
+      </c>
+      <c r="E181" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F181" s="9">
         <v>43.76</v>
       </c>
-      <c r="E181" s="14">
-        <v>36450</v>
-      </c>
-      <c r="F181" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G181" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="182" spans="1:6" ht="18" thickBot="1">
       <c r="A182" s="4">
         <v>1.2</v>
       </c>
@@ -4857,20 +4290,17 @@
       <c r="C182" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D182" s="9">
+      <c r="D182" s="12">
+        <v>32379</v>
+      </c>
+      <c r="E182" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F182" s="9">
         <v>43.76</v>
       </c>
-      <c r="E182" s="14">
-        <v>32379</v>
-      </c>
-      <c r="F182" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G182" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="A183" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -4880,20 +4310,17 @@
       <c r="C183" s="8">
         <v>1500819.1</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="12">
+        <v>32691</v>
+      </c>
+      <c r="E183" s="19">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="F183" s="9">
         <v>43.77</v>
       </c>
-      <c r="E183" s="14">
-        <v>32691</v>
-      </c>
-      <c r="F183" s="21">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="G183" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="184" spans="1:6" ht="18" thickBot="1">
       <c r="A184" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -4903,20 +4330,17 @@
       <c r="C184" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D184" s="9">
+      <c r="D184" s="12">
+        <v>41914</v>
+      </c>
+      <c r="E184" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F184" s="9">
         <v>43.78</v>
       </c>
-      <c r="E184" s="14">
-        <v>41914</v>
-      </c>
-      <c r="F184" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G184" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="185" spans="1:6" ht="18" thickBot="1">
       <c r="A185" s="4">
         <v>1</v>
       </c>
@@ -4926,20 +4350,17 @@
       <c r="C185" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D185" s="9">
+      <c r="D185" s="12">
+        <v>35709</v>
+      </c>
+      <c r="E185" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F185" s="9">
         <v>43.78</v>
       </c>
-      <c r="E185" s="14">
-        <v>35709</v>
-      </c>
-      <c r="F185" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G185" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="186" spans="1:6" ht="18" thickBot="1">
       <c r="A186" s="4">
         <v>1.3</v>
       </c>
@@ -4949,20 +4370,17 @@
       <c r="C186" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="12">
+        <v>40329</v>
+      </c>
+      <c r="E186" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F186" s="9">
         <v>43.78</v>
       </c>
-      <c r="E186" s="14">
-        <v>40329</v>
-      </c>
-      <c r="F186" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G186" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="187" spans="1:6" ht="18" thickBot="1">
       <c r="A187" s="4">
         <v>1.5</v>
       </c>
@@ -4972,20 +4390,17 @@
       <c r="C187" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D187" s="9">
+      <c r="D187" s="12">
+        <v>38072</v>
+      </c>
+      <c r="E187" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F187" s="9">
         <v>43.77</v>
       </c>
-      <c r="E187" s="14">
-        <v>38072</v>
-      </c>
-      <c r="F187" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G187" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="188" spans="1:6" ht="18" thickBot="1">
       <c r="A188" s="4">
         <v>1.7</v>
       </c>
@@ -4995,20 +4410,17 @@
       <c r="C188" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="12">
+        <v>36534</v>
+      </c>
+      <c r="E188" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F188" s="9">
         <v>43.78</v>
       </c>
-      <c r="E188" s="14">
-        <v>36534</v>
-      </c>
-      <c r="F188" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G188" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="189" spans="1:6" ht="18" thickBot="1">
       <c r="A189" s="4">
         <v>1.7</v>
       </c>
@@ -5018,20 +4430,17 @@
       <c r="C189" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D189" s="9">
+      <c r="D189" s="12">
+        <v>35520</v>
+      </c>
+      <c r="E189" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F189" s="9">
         <v>43.78</v>
       </c>
-      <c r="E189" s="14">
-        <v>35520</v>
-      </c>
-      <c r="F189" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G189" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="190" spans="1:6" ht="18" thickBot="1">
       <c r="A190" s="4">
         <v>1.6</v>
       </c>
@@ -5041,20 +4450,17 @@
       <c r="C190" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="12">
+        <v>36612</v>
+      </c>
+      <c r="E190" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F190" s="9">
         <v>43.79</v>
       </c>
-      <c r="E190" s="14">
-        <v>36612</v>
-      </c>
-      <c r="F190" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G190" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="191" spans="1:6" ht="18" thickBot="1">
       <c r="A191" s="4">
         <v>1.4</v>
       </c>
@@ -5064,20 +4470,17 @@
       <c r="C191" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D191" s="9">
+      <c r="D191" s="12">
+        <v>35207</v>
+      </c>
+      <c r="E191" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F191" s="9">
         <v>43.79</v>
       </c>
-      <c r="E191" s="14">
-        <v>35207</v>
-      </c>
-      <c r="F191" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G191" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="192" spans="1:6" ht="18" thickBot="1">
       <c r="A192" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -5087,20 +4490,17 @@
       <c r="C192" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D192" s="9">
+      <c r="D192" s="12">
+        <v>36444</v>
+      </c>
+      <c r="E192" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F192" s="9">
         <v>43.78</v>
       </c>
-      <c r="E192" s="14">
-        <v>36444</v>
-      </c>
-      <c r="F192" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G192" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="193" spans="1:6" ht="18" thickBot="1">
       <c r="A193" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -5110,20 +4510,17 @@
       <c r="C193" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="12">
+        <v>36702</v>
+      </c>
+      <c r="E193" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F193" s="9">
         <v>43.77</v>
       </c>
-      <c r="E193" s="14">
-        <v>36702</v>
-      </c>
-      <c r="F193" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G193" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="194" spans="1:6" ht="18" thickBot="1">
       <c r="A194" s="4">
         <v>1</v>
       </c>
@@ -5133,20 +4530,17 @@
       <c r="C194" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="12">
+        <v>33467</v>
+      </c>
+      <c r="E194" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F194" s="9">
         <v>43.76</v>
       </c>
-      <c r="E194" s="14">
-        <v>33467</v>
-      </c>
-      <c r="F194" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G194" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="195" spans="1:6" ht="18" thickBot="1">
       <c r="A195" s="4">
         <v>0.8</v>
       </c>
@@ -5156,20 +4550,17 @@
       <c r="C195" s="8">
         <v>1562928.9</v>
       </c>
-      <c r="D195" s="9">
+      <c r="D195" s="12">
+        <v>31910</v>
+      </c>
+      <c r="E195" s="19">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="F195" s="9">
         <v>43.77</v>
       </c>
-      <c r="E195" s="14">
-        <v>31910</v>
-      </c>
-      <c r="F195" s="21">
-        <v>1.2050000000000001</v>
-      </c>
-      <c r="G195" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="196" spans="1:6" ht="18" thickBot="1">
       <c r="A196" s="4">
         <v>1</v>
       </c>
@@ -5179,20 +4570,17 @@
       <c r="C196" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D196" s="9">
+      <c r="D196" s="12">
+        <v>39405</v>
+      </c>
+      <c r="E196" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F196" s="9">
         <v>43.77</v>
       </c>
-      <c r="E196" s="14">
-        <v>39405</v>
-      </c>
-      <c r="F196" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G196" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="197" spans="1:6" ht="18" thickBot="1">
       <c r="A197" s="4">
         <v>0.6</v>
       </c>
@@ -5202,20 +4590,17 @@
       <c r="C197" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="12">
+        <v>34830</v>
+      </c>
+      <c r="E197" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F197" s="9">
         <v>43.78</v>
       </c>
-      <c r="E197" s="14">
-        <v>34830</v>
-      </c>
-      <c r="F197" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G197" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="198" spans="1:6" ht="18" thickBot="1">
       <c r="A198" s="4">
         <v>0.5</v>
       </c>
@@ -5225,20 +4610,17 @@
       <c r="C198" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="12">
+        <v>38131</v>
+      </c>
+      <c r="E198" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F198" s="9">
         <v>43.78</v>
       </c>
-      <c r="E198" s="14">
-        <v>38131</v>
-      </c>
-      <c r="F198" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G198" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="199" spans="1:6" ht="18" thickBot="1">
       <c r="A199" s="4">
         <v>0.4</v>
       </c>
@@ -5248,20 +4630,17 @@
       <c r="C199" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D199" s="9">
+      <c r="D199" s="12">
+        <v>35147</v>
+      </c>
+      <c r="E199" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F199" s="9">
         <v>43.78</v>
       </c>
-      <c r="E199" s="14">
-        <v>35147</v>
-      </c>
-      <c r="F199" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G199" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="200" spans="1:6" ht="18" thickBot="1">
       <c r="A200" s="4">
         <v>0.6</v>
       </c>
@@ -5271,20 +4650,17 @@
       <c r="C200" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D200" s="9">
+      <c r="D200" s="12">
+        <v>34341</v>
+      </c>
+      <c r="E200" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F200" s="9">
         <v>43.77</v>
       </c>
-      <c r="E200" s="14">
-        <v>34341</v>
-      </c>
-      <c r="F200" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G200" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="201" spans="1:6" ht="18" thickBot="1">
       <c r="A201" s="4">
         <v>0.7</v>
       </c>
@@ -5294,20 +4670,17 @@
       <c r="C201" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="12">
+        <v>32849</v>
+      </c>
+      <c r="E201" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F201" s="9">
         <v>43.77</v>
       </c>
-      <c r="E201" s="14">
-        <v>32849</v>
-      </c>
-      <c r="F201" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G201" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="202" spans="1:6" ht="18" thickBot="1">
       <c r="A202" s="4">
         <v>0.7</v>
       </c>
@@ -5317,20 +4690,17 @@
       <c r="C202" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="12">
+        <v>33920</v>
+      </c>
+      <c r="E202" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F202" s="9">
         <v>43.77</v>
       </c>
-      <c r="E202" s="14">
-        <v>33920</v>
-      </c>
-      <c r="F202" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G202" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="203" spans="1:6" ht="18" thickBot="1">
       <c r="A203" s="4">
         <v>0.7</v>
       </c>
@@ -5340,20 +4710,17 @@
       <c r="C203" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="12">
+        <v>33897</v>
+      </c>
+      <c r="E203" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F203" s="9">
         <v>43.76</v>
       </c>
-      <c r="E203" s="14">
-        <v>33897</v>
-      </c>
-      <c r="F203" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G203" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="204" spans="1:6" ht="18" thickBot="1">
       <c r="A204" s="4">
         <v>0.5</v>
       </c>
@@ -5363,20 +4730,17 @@
       <c r="C204" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D204" s="9">
+      <c r="D204" s="12">
+        <v>34375</v>
+      </c>
+      <c r="E204" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F204" s="9">
         <v>43.76</v>
       </c>
-      <c r="E204" s="14">
-        <v>34375</v>
-      </c>
-      <c r="F204" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G204" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="205" spans="1:6" ht="18" thickBot="1">
       <c r="A205" s="4">
         <v>0.8</v>
       </c>
@@ -5386,20 +4750,17 @@
       <c r="C205" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D205" s="9">
+      <c r="D205" s="12">
+        <v>31592</v>
+      </c>
+      <c r="E205" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F205" s="9">
         <v>43.75</v>
       </c>
-      <c r="E205" s="14">
-        <v>31592</v>
-      </c>
-      <c r="F205" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G205" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="206" spans="1:6" ht="18" thickBot="1">
       <c r="A206" s="4">
         <v>0.8</v>
       </c>
@@ -5409,20 +4770,17 @@
       <c r="C206" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D206" s="9">
+      <c r="D206" s="12">
+        <v>30366</v>
+      </c>
+      <c r="E206" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F206" s="9">
         <v>43.75</v>
       </c>
-      <c r="E206" s="14">
-        <v>30366</v>
-      </c>
-      <c r="F206" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G206" s="12">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="207" spans="1:6" ht="18" thickBot="1">
       <c r="A207" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -5432,20 +4790,17 @@
       <c r="C207" s="8">
         <v>1658020.4</v>
       </c>
-      <c r="D207" s="9">
+      <c r="D207" s="12">
+        <v>27390</v>
+      </c>
+      <c r="E207" s="19">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="F207" s="9">
         <v>43.76</v>
       </c>
-      <c r="E207" s="14">
-        <v>27390</v>
-      </c>
-      <c r="F207" s="21">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="G207" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="208" spans="1:6" ht="18" thickBot="1">
       <c r="A208" s="4">
         <v>0.6</v>
       </c>
@@ -5455,20 +4810,17 @@
       <c r="C208" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D208" s="9">
+      <c r="D208" s="12">
+        <v>34834</v>
+      </c>
+      <c r="E208" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F208" s="9">
         <v>43.77</v>
       </c>
-      <c r="E208" s="14">
-        <v>34834</v>
-      </c>
-      <c r="F208" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G208" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="209" spans="1:6" ht="18" thickBot="1">
       <c r="A209" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -5478,20 +4830,17 @@
       <c r="C209" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D209" s="9">
+      <c r="D209" s="12">
+        <v>30499</v>
+      </c>
+      <c r="E209" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F209" s="9">
         <v>43.78</v>
       </c>
-      <c r="E209" s="14">
-        <v>30499</v>
-      </c>
-      <c r="F209" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G209" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="210" spans="1:6" ht="18" thickBot="1">
       <c r="A210" s="4">
         <v>0.8</v>
       </c>
@@ -5501,20 +4850,17 @@
       <c r="C210" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D210" s="9">
+      <c r="D210" s="12">
+        <v>33196</v>
+      </c>
+      <c r="E210" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F210" s="9">
         <v>43.78</v>
       </c>
-      <c r="E210" s="14">
-        <v>33196</v>
-      </c>
-      <c r="F210" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G210" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="211" spans="1:6" ht="18" thickBot="1">
       <c r="A211" s="4">
         <v>1</v>
       </c>
@@ -5524,20 +4870,17 @@
       <c r="C211" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D211" s="9">
+      <c r="D211" s="12">
+        <v>30337</v>
+      </c>
+      <c r="E211" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F211" s="9">
         <v>43.78</v>
       </c>
-      <c r="E211" s="14">
-        <v>30337</v>
-      </c>
-      <c r="F211" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G211" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="212" spans="1:6" ht="18" thickBot="1">
       <c r="A212" s="4">
         <v>0.8</v>
       </c>
@@ -5547,20 +4890,17 @@
       <c r="C212" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D212" s="9">
+      <c r="D212" s="12">
+        <v>30303</v>
+      </c>
+      <c r="E212" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F212" s="9">
         <v>43.78</v>
       </c>
-      <c r="E212" s="14">
-        <v>30303</v>
-      </c>
-      <c r="F212" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G212" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="A213" s="4">
         <v>0.7</v>
       </c>
@@ -5570,20 +4910,17 @@
       <c r="C213" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D213" s="9">
+      <c r="D213" s="12">
+        <v>28892</v>
+      </c>
+      <c r="E213" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F213" s="9">
         <v>43.79</v>
       </c>
-      <c r="E213" s="14">
-        <v>28892</v>
-      </c>
-      <c r="F213" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G213" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="214" spans="1:6" ht="18" thickBot="1">
       <c r="A214" s="4">
         <v>0.4</v>
       </c>
@@ -5593,20 +4930,17 @@
       <c r="C214" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D214" s="9">
+      <c r="D214" s="12">
+        <v>29418</v>
+      </c>
+      <c r="E214" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F214" s="9">
         <v>43.8</v>
       </c>
-      <c r="E214" s="14">
-        <v>29418</v>
-      </c>
-      <c r="F214" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G214" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="215" spans="1:6" ht="18" thickBot="1">
       <c r="A215" s="4">
         <v>0.5</v>
       </c>
@@ -5616,20 +4950,17 @@
       <c r="C215" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D215" s="9">
+      <c r="D215" s="12">
+        <v>30135</v>
+      </c>
+      <c r="E215" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F215" s="9">
         <v>43.8</v>
       </c>
-      <c r="E215" s="14">
-        <v>30135</v>
-      </c>
-      <c r="F215" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G215" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="216" spans="1:6" ht="18" thickBot="1">
       <c r="A216" s="4">
         <v>1.3</v>
       </c>
@@ -5639,20 +4970,17 @@
       <c r="C216" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D216" s="9">
+      <c r="D216" s="12">
+        <v>30085</v>
+      </c>
+      <c r="E216" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F216" s="9">
         <v>43.81</v>
       </c>
-      <c r="E216" s="14">
-        <v>30085</v>
-      </c>
-      <c r="F216" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G216" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="A217" s="4">
         <v>1.5</v>
       </c>
@@ -5662,20 +4990,17 @@
       <c r="C217" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D217" s="9">
+      <c r="D217" s="12">
+        <v>27857</v>
+      </c>
+      <c r="E217" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F217" s="9">
         <v>43.81</v>
       </c>
-      <c r="E217" s="14">
-        <v>27857</v>
-      </c>
-      <c r="F217" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G217" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="218" spans="1:6" ht="18" thickBot="1">
       <c r="A218" s="4">
         <v>1.5</v>
       </c>
@@ -5685,20 +5010,17 @@
       <c r="C218" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D218" s="9">
+      <c r="D218" s="12">
+        <v>27068</v>
+      </c>
+      <c r="E218" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F218" s="9">
         <v>43.81</v>
       </c>
-      <c r="E218" s="14">
-        <v>27068</v>
-      </c>
-      <c r="F218" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G218" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="219" spans="1:6" ht="18" thickBot="1">
       <c r="A219" s="4">
         <v>1.3</v>
       </c>
@@ -5708,20 +5030,17 @@
       <c r="C219" s="8">
         <v>1740779.6</v>
       </c>
-      <c r="D219" s="9">
+      <c r="D219" s="12">
+        <v>25147</v>
+      </c>
+      <c r="E219" s="19">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="F219" s="9">
         <v>43.82</v>
       </c>
-      <c r="E219" s="14">
-        <v>25147</v>
-      </c>
-      <c r="F219" s="21">
-        <v>1.1719999999999999</v>
-      </c>
-      <c r="G219" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="220" spans="1:6" ht="18" thickBot="1">
       <c r="A220" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -5731,20 +5050,17 @@
       <c r="C220" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D220" s="9">
+      <c r="D220" s="12">
+        <v>32198</v>
+      </c>
+      <c r="E220" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F220" s="9">
         <v>43.84</v>
       </c>
-      <c r="E220" s="14">
-        <v>32198</v>
-      </c>
-      <c r="F220" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G220" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="221" spans="1:6" ht="18" thickBot="1">
       <c r="A221" s="4">
         <v>2.1</v>
       </c>
@@ -5754,20 +5070,17 @@
       <c r="C221" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D221" s="9">
+      <c r="D221" s="12">
+        <v>27575</v>
+      </c>
+      <c r="E221" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F221" s="9">
         <v>43.86</v>
       </c>
-      <c r="E221" s="14">
-        <v>27575</v>
-      </c>
-      <c r="F221" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G221" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="A222" s="4">
         <v>2.2999999999999998</v>
       </c>
@@ -5777,20 +5090,17 @@
       <c r="C222" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D222" s="9">
+      <c r="D222" s="12">
+        <v>29987</v>
+      </c>
+      <c r="E222" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F222" s="9">
         <v>43.86</v>
       </c>
-      <c r="E222" s="14">
-        <v>29987</v>
-      </c>
-      <c r="F222" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G222" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="223" spans="1:6" ht="18" thickBot="1">
       <c r="A223" s="4">
         <v>2</v>
       </c>
@@ -5800,20 +5110,17 @@
       <c r="C223" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D223" s="9">
+      <c r="D223" s="12">
+        <v>27734</v>
+      </c>
+      <c r="E223" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F223" s="9">
         <v>43.87</v>
       </c>
-      <c r="E223" s="14">
-        <v>27734</v>
-      </c>
-      <c r="F223" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G223" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="224" spans="1:6" ht="18" thickBot="1">
       <c r="A224" s="4">
         <v>2</v>
       </c>
@@ -5823,20 +5130,17 @@
       <c r="C224" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D224" s="9">
+      <c r="D224" s="12">
+        <v>27949</v>
+      </c>
+      <c r="E224" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F224" s="9">
         <v>43.87</v>
       </c>
-      <c r="E224" s="14">
-        <v>27949</v>
-      </c>
-      <c r="F224" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G224" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="225" spans="1:6" ht="18" thickBot="1">
       <c r="A225" s="4">
         <v>1.8</v>
       </c>
@@ -5846,20 +5150,17 @@
       <c r="C225" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D225" s="9">
+      <c r="D225" s="12">
+        <v>26357</v>
+      </c>
+      <c r="E225" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F225" s="9">
         <v>43.88</v>
       </c>
-      <c r="E225" s="14">
-        <v>26357</v>
-      </c>
-      <c r="F225" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G225" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="226" spans="1:6" ht="18" thickBot="1">
       <c r="A226" s="4">
         <v>2.2000000000000002</v>
       </c>
@@ -5869,20 +5170,17 @@
       <c r="C226" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D226" s="9">
+      <c r="D226" s="12">
+        <v>27033</v>
+      </c>
+      <c r="E226" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F226" s="9">
         <v>43.88</v>
       </c>
-      <c r="E226" s="14">
-        <v>27033</v>
-      </c>
-      <c r="F226" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G226" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="227" spans="1:6" ht="18" thickBot="1">
       <c r="A227" s="4">
         <v>2.5</v>
       </c>
@@ -5892,20 +5190,17 @@
       <c r="C227" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D227" s="9">
+      <c r="D227" s="12">
+        <v>27381</v>
+      </c>
+      <c r="E227" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F227" s="9">
         <v>43.89</v>
       </c>
-      <c r="E227" s="14">
-        <v>27381</v>
-      </c>
-      <c r="F227" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G227" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="228" spans="1:6" ht="18" thickBot="1">
       <c r="A228" s="4">
         <v>2</v>
       </c>
@@ -5915,20 +5210,17 @@
       <c r="C228" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D228" s="9">
+      <c r="D228" s="12">
+        <v>26066</v>
+      </c>
+      <c r="E228" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F228" s="9">
         <v>43.9</v>
       </c>
-      <c r="E228" s="14">
-        <v>26066</v>
-      </c>
-      <c r="F228" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G228" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="229" spans="1:6" ht="18" thickBot="1">
       <c r="A229" s="4">
         <v>1.8</v>
       </c>
@@ -5938,20 +5230,17 @@
       <c r="C229" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D229" s="9">
+      <c r="D229" s="12">
+        <v>26474</v>
+      </c>
+      <c r="E229" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F229" s="9">
         <v>43.9</v>
       </c>
-      <c r="E229" s="14">
-        <v>26474</v>
-      </c>
-      <c r="F229" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G229" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="230" spans="1:6" ht="18" thickBot="1">
       <c r="A230" s="4">
         <v>1.2</v>
       </c>
@@ -5961,20 +5250,17 @@
       <c r="C230" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D230" s="9">
+      <c r="D230" s="12">
+        <v>25301</v>
+      </c>
+      <c r="E230" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F230" s="9">
         <v>43.9</v>
       </c>
-      <c r="E230" s="14">
-        <v>25301</v>
-      </c>
-      <c r="F230" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G230" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="231" spans="1:6" ht="18" thickBot="1">
       <c r="A231" s="4">
         <v>1.4</v>
       </c>
@@ -5984,20 +5270,17 @@
       <c r="C231" s="8">
         <v>1835698.2</v>
       </c>
-      <c r="D231" s="9">
+      <c r="D231" s="12">
+        <v>22767</v>
+      </c>
+      <c r="E231" s="19">
+        <v>1.052</v>
+      </c>
+      <c r="F231" s="9">
         <v>43.92</v>
       </c>
-      <c r="E231" s="14">
-        <v>22767</v>
-      </c>
-      <c r="F231" s="21">
-        <v>1.052</v>
-      </c>
-      <c r="G231" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="232" spans="1:6" ht="18" thickBot="1">
       <c r="A232" s="4">
         <v>0.8</v>
       </c>
@@ -6007,20 +5290,17 @@
       <c r="C232" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D232" s="9">
+      <c r="D232" s="12">
+        <v>30271</v>
+      </c>
+      <c r="E232" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F232" s="9">
         <v>43.94</v>
       </c>
-      <c r="E232" s="14">
-        <v>30271</v>
-      </c>
-      <c r="F232" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G232" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="A233" s="4">
         <v>1.3</v>
       </c>
@@ -6030,20 +5310,17 @@
       <c r="C233" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D233" s="9">
+      <c r="D233" s="12">
+        <v>25710</v>
+      </c>
+      <c r="E233" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F233" s="9">
         <v>43.96</v>
       </c>
-      <c r="E233" s="14">
-        <v>25710</v>
-      </c>
-      <c r="F233" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G233" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="234" spans="1:6" ht="18" thickBot="1">
       <c r="A234" s="4">
         <v>1.2</v>
       </c>
@@ -6053,20 +5330,17 @@
       <c r="C234" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D234" s="9">
+      <c r="D234" s="12">
+        <v>27049</v>
+      </c>
+      <c r="E234" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F234" s="9">
         <v>43.97</v>
       </c>
-      <c r="E234" s="14">
-        <v>27049</v>
-      </c>
-      <c r="F234" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G234" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="235" spans="1:6" ht="18" thickBot="1">
       <c r="A235" s="4">
         <v>1.5</v>
       </c>
@@ -6076,20 +5350,17 @@
       <c r="C235" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D235" s="9">
+      <c r="D235" s="12">
+        <v>26104</v>
+      </c>
+      <c r="E235" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F235" s="9">
         <v>43.98</v>
       </c>
-      <c r="E235" s="14">
-        <v>26104</v>
-      </c>
-      <c r="F235" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G235" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="236" spans="1:6" ht="18" thickBot="1">
       <c r="A236" s="4">
         <v>1.5</v>
       </c>
@@ -6099,20 +5370,17 @@
       <c r="C236" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D236" s="9">
+      <c r="D236" s="12">
+        <v>25299</v>
+      </c>
+      <c r="E236" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F236" s="9">
         <v>43.99</v>
       </c>
-      <c r="E236" s="14">
-        <v>25299</v>
-      </c>
-      <c r="F236" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G236" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="A237" s="4">
         <v>1.5</v>
       </c>
@@ -6122,20 +5390,17 @@
       <c r="C237" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D237" s="9">
+      <c r="D237" s="12">
+        <v>23992</v>
+      </c>
+      <c r="E237" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F237" s="9">
         <v>44.01</v>
       </c>
-      <c r="E237" s="14">
-        <v>23992</v>
-      </c>
-      <c r="F237" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G237" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="238" spans="1:6" ht="18" thickBot="1">
       <c r="A238" s="4">
         <v>1.1000000000000001</v>
       </c>
@@ -6145,20 +5410,17 @@
       <c r="C238" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D238" s="9">
+      <c r="D238" s="12">
+        <v>25222</v>
+      </c>
+      <c r="E238" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F238" s="9">
         <v>44.03</v>
       </c>
-      <c r="E238" s="14">
-        <v>25222</v>
-      </c>
-      <c r="F238" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G238" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="239" spans="1:6" ht="18" thickBot="1">
       <c r="A239" s="4">
         <v>1.4</v>
       </c>
@@ -6168,20 +5430,17 @@
       <c r="C239" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D239" s="9">
+      <c r="D239" s="12">
+        <v>24371</v>
+      </c>
+      <c r="E239" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F239" s="9">
         <v>44.04</v>
       </c>
-      <c r="E239" s="14">
-        <v>24371</v>
-      </c>
-      <c r="F239" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G239" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="240" spans="1:6" ht="18" thickBot="1">
       <c r="A240" s="4">
         <v>2.1</v>
       </c>
@@ -6191,20 +5450,17 @@
       <c r="C240" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D240" s="9">
+      <c r="D240" s="12">
+        <v>24090</v>
+      </c>
+      <c r="E240" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F240" s="9">
         <v>44.05</v>
       </c>
-      <c r="E240" s="14">
-        <v>24090</v>
-      </c>
-      <c r="F240" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G240" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="A241" s="4">
         <v>2</v>
       </c>
@@ -6214,20 +5470,17 @@
       <c r="C241" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D241" s="9">
+      <c r="D241" s="12">
+        <v>25613</v>
+      </c>
+      <c r="E241" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F241" s="9">
         <v>44.06</v>
       </c>
-      <c r="E241" s="14">
-        <v>25613</v>
-      </c>
-      <c r="F241" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G241" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="242" spans="1:6" ht="18" thickBot="1">
       <c r="A242" s="4">
         <v>2</v>
       </c>
@@ -6237,20 +5490,17 @@
       <c r="C242" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D242" s="9">
+      <c r="D242" s="12">
+        <v>23727</v>
+      </c>
+      <c r="E242" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F242" s="9">
         <v>44.08</v>
       </c>
-      <c r="E242" s="14">
-        <v>23727</v>
-      </c>
-      <c r="F242" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G242" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="243" spans="1:6" ht="18" thickBot="1">
       <c r="A243" s="3">
         <v>1.3</v>
       </c>
@@ -6260,20 +5510,17 @@
       <c r="C243" s="8">
         <v>1898192.6</v>
       </c>
-      <c r="D243" s="9">
+      <c r="D243" s="12">
+        <v>21228</v>
+      </c>
+      <c r="E243" s="19">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F243" s="9">
         <v>44.1</v>
       </c>
-      <c r="E243" s="14">
-        <v>21228</v>
-      </c>
-      <c r="F243" s="21">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="G243" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="244" spans="1:6" ht="18" thickBot="1">
       <c r="A244" s="3">
         <v>0.8</v>
       </c>
@@ -6283,20 +5530,17 @@
       <c r="C244" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D244" s="9">
+      <c r="D244" s="12">
+        <v>26646</v>
+      </c>
+      <c r="E244" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F244" s="9">
         <v>44.14</v>
       </c>
-      <c r="E244" s="14">
-        <v>26646</v>
-      </c>
-      <c r="F244" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G244" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="245" spans="1:6" ht="18" thickBot="1">
       <c r="A245" s="3">
         <v>0.5</v>
       </c>
@@ -6306,20 +5550,17 @@
       <c r="C245" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D245" s="9">
+      <c r="D245" s="12">
+        <v>22759</v>
+      </c>
+      <c r="E245" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F245" s="9">
         <v>44.15</v>
       </c>
-      <c r="E245" s="14">
-        <v>22759</v>
-      </c>
-      <c r="F245" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G245" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="246" spans="1:6" ht="18" thickBot="1">
       <c r="A246" s="3">
         <v>0.4</v>
       </c>
@@ -6329,20 +5570,17 @@
       <c r="C246" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D246" s="9">
+      <c r="D246" s="12">
+        <v>24190</v>
+      </c>
+      <c r="E246" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F246" s="9">
         <v>44.17</v>
       </c>
-      <c r="E246" s="14">
-        <v>24190</v>
-      </c>
-      <c r="F246" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G246" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="247" spans="1:6" ht="18" thickBot="1">
       <c r="A247" s="3">
         <v>0.6</v>
       </c>
@@ -6352,20 +5590,17 @@
       <c r="C247" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D247" s="9">
+      <c r="D247" s="12">
+        <v>23299</v>
+      </c>
+      <c r="E247" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F247" s="9">
         <v>44.19</v>
       </c>
-      <c r="E247" s="14">
-        <v>23299</v>
-      </c>
-      <c r="F247" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G247" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="248" spans="1:6" ht="18" thickBot="1">
       <c r="A248" s="3">
         <v>0.7</v>
       </c>
@@ -6375,20 +5610,17 @@
       <c r="C248" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D248" s="9">
+      <c r="D248" s="12">
+        <v>22847</v>
+      </c>
+      <c r="E248" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F248" s="9">
         <v>44.2</v>
       </c>
-      <c r="E248" s="14">
-        <v>22847</v>
-      </c>
-      <c r="F248" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G248" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="249" spans="1:6" ht="18" thickBot="1">
       <c r="A249" s="3">
         <v>0.7</v>
       </c>
@@ -6398,20 +5630,17 @@
       <c r="C249" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D249" s="9">
+      <c r="D249" s="12">
+        <v>22117</v>
+      </c>
+      <c r="E249" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F249" s="9">
         <v>44.22</v>
       </c>
-      <c r="E249" s="14">
-        <v>22117</v>
-      </c>
-      <c r="F249" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G249" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="250" spans="1:6" ht="18" thickBot="1">
       <c r="A250" s="3">
         <v>0.6</v>
       </c>
@@ -6421,20 +5650,17 @@
       <c r="C250" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D250" s="9">
+      <c r="D250" s="12">
+        <v>22999</v>
+      </c>
+      <c r="E250" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F250" s="9">
         <v>44.24</v>
       </c>
-      <c r="E250" s="14">
-        <v>22999</v>
-      </c>
-      <c r="F250" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G250" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="251" spans="1:6" ht="18" thickBot="1">
       <c r="A251" s="3">
         <v>0</v>
       </c>
@@ -6444,20 +5670,17 @@
       <c r="C251" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D251" s="9">
+      <c r="D251" s="12">
+        <v>22402</v>
+      </c>
+      <c r="E251" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F251" s="9">
         <v>44.26</v>
       </c>
-      <c r="E251" s="14">
-        <v>22402</v>
-      </c>
-      <c r="F251" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G251" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="252" spans="1:6" ht="18" thickBot="1">
       <c r="A252" s="3">
         <v>-0.4</v>
       </c>
@@ -6467,20 +5690,17 @@
       <c r="C252" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D252" s="9">
+      <c r="D252" s="12">
+        <v>23499</v>
+      </c>
+      <c r="E252" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F252" s="9">
         <v>44.27</v>
       </c>
-      <c r="E252" s="14">
-        <v>23499</v>
-      </c>
-      <c r="F252" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G252" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="253" spans="1:6" ht="18" thickBot="1">
       <c r="A253" s="3">
         <v>0</v>
       </c>
@@ -6490,20 +5710,17 @@
       <c r="C253" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D253" s="9">
+      <c r="D253" s="12">
+        <v>21884</v>
+      </c>
+      <c r="E253" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F253" s="9">
         <v>44.28</v>
       </c>
-      <c r="E253" s="14">
-        <v>21884</v>
-      </c>
-      <c r="F253" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G253" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="254" spans="1:6" ht="18" thickBot="1">
       <c r="A254" s="3">
         <v>0.2</v>
       </c>
@@ -6513,20 +5730,17 @@
       <c r="C254" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D254" s="9">
+      <c r="D254" s="12">
+        <v>20054</v>
+      </c>
+      <c r="E254" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F254" s="9">
         <v>44.3</v>
       </c>
-      <c r="E254" s="14">
-        <v>20054</v>
-      </c>
-      <c r="F254" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G254" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="255" spans="1:6" ht="18" thickBot="1">
       <c r="A255" s="3">
         <v>0.7</v>
       </c>
@@ -6536,20 +5750,17 @@
       <c r="C255" s="8">
         <v>1924498.1</v>
       </c>
-      <c r="D255" s="9">
+      <c r="D255" s="12">
+        <v>19641</v>
+      </c>
+      <c r="E255" s="19">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F255" s="9">
         <v>44.33</v>
       </c>
-      <c r="E255" s="14">
-        <v>19641</v>
-      </c>
-      <c r="F255" s="21">
-        <v>0.91800000000000004</v>
-      </c>
-      <c r="G255" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="A256" s="3">
         <v>1.2</v>
       </c>
@@ -6559,20 +5770,17 @@
       <c r="C256" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D256" s="9">
+      <c r="D256" s="13">
+        <v>24909</v>
+      </c>
+      <c r="E256" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F256" s="9">
         <v>44.37</v>
       </c>
-      <c r="E256" s="15">
-        <v>24909</v>
-      </c>
-      <c r="F256" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G256" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="257" spans="1:6" ht="18" thickBot="1">
       <c r="A257" s="3">
         <v>0.9</v>
       </c>
@@ -6582,20 +5790,17 @@
       <c r="C257" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D257" s="9">
+      <c r="D257" s="13">
+        <v>21328</v>
+      </c>
+      <c r="E257" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F257" s="9">
         <v>44.41</v>
       </c>
-      <c r="E257" s="15">
-        <v>21328</v>
-      </c>
-      <c r="F257" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G257" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="258" spans="1:6" ht="18" thickBot="1">
       <c r="A258" s="3">
         <v>0.8</v>
       </c>
@@ -6605,20 +5810,17 @@
       <c r="C258" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D258" s="9">
+      <c r="D258" s="13">
+        <v>23934</v>
+      </c>
+      <c r="E258" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F258" s="9">
         <v>44.44</v>
       </c>
-      <c r="E258" s="15">
-        <v>23934</v>
-      </c>
-      <c r="F258" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G258" s="12">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="259" spans="1:6" ht="18" thickBot="1">
       <c r="A259" s="3">
         <v>0</v>
       </c>
@@ -6628,20 +5830,17 @@
       <c r="C259" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D259" s="9">
+      <c r="D259" s="13">
+        <v>22710</v>
+      </c>
+      <c r="E259" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F259" s="9">
         <v>44.46</v>
       </c>
-      <c r="E259" s="15">
-        <v>22710</v>
-      </c>
-      <c r="F259" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G259" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="260" spans="1:6" ht="18" thickBot="1">
       <c r="A260" s="3">
         <v>-0.2</v>
       </c>
@@ -6651,20 +5850,17 @@
       <c r="C260" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D260" s="9">
+      <c r="D260" s="13">
+        <v>21935</v>
+      </c>
+      <c r="E260" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F260" s="9">
         <v>44.48</v>
       </c>
-      <c r="E260" s="15">
-        <v>21935</v>
-      </c>
-      <c r="F260" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G260" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="A261" s="3">
         <v>0.2</v>
       </c>
@@ -6674,20 +5870,17 @@
       <c r="C261" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D261" s="9">
+      <c r="D261" s="13">
+        <v>21524</v>
+      </c>
+      <c r="E261" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F261" s="9">
         <v>44.5</v>
       </c>
-      <c r="E261" s="15">
-        <v>21524</v>
-      </c>
-      <c r="F261" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G261" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="262" spans="1:6" ht="18" thickBot="1">
       <c r="A262" s="3">
         <v>0.4</v>
       </c>
@@ -6697,20 +5890,17 @@
       <c r="C262" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D262" s="9">
+      <c r="D262" s="13">
+        <v>22356</v>
+      </c>
+      <c r="E262" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F262" s="9">
         <v>44.52</v>
       </c>
-      <c r="E262" s="15">
-        <v>22356</v>
-      </c>
-      <c r="F262" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G262" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="263" spans="1:6" ht="18" thickBot="1">
       <c r="A263" s="3">
         <v>0.8</v>
       </c>
@@ -6720,20 +5910,17 @@
       <c r="C263" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D263" s="9">
+      <c r="D263" s="13">
+        <v>22287</v>
+      </c>
+      <c r="E263" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F263" s="9">
         <v>44.53</v>
       </c>
-      <c r="E263" s="15">
-        <v>22287</v>
-      </c>
-      <c r="F263" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G263" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="264" spans="1:6" ht="18" thickBot="1">
       <c r="A264" s="3">
         <v>0.9</v>
       </c>
@@ -6743,20 +5930,17 @@
       <c r="C264" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D264" s="9">
+      <c r="D264" s="13">
+        <v>21893</v>
+      </c>
+      <c r="E264" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F264" s="9">
         <v>44.54</v>
       </c>
-      <c r="E264" s="15">
-        <v>21893</v>
-      </c>
-      <c r="F264" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G264" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="265" spans="1:6" ht="18" thickBot="1">
       <c r="A265" s="3">
         <v>0.1</v>
       </c>
@@ -6766,20 +5950,17 @@
       <c r="C265" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D265" s="9">
+      <c r="D265" s="13">
+        <v>20741</v>
+      </c>
+      <c r="E265" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F265" s="9">
         <v>44.55</v>
       </c>
-      <c r="E265" s="15">
-        <v>20741</v>
-      </c>
-      <c r="F265" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G265" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="266" spans="1:6" ht="18" thickBot="1">
       <c r="A266" s="3">
         <v>0.6</v>
       </c>
@@ -6789,20 +5970,17 @@
       <c r="C266" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D266" s="9">
+      <c r="D266" s="13">
+        <v>19793</v>
+      </c>
+      <c r="E266" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F266" s="9">
         <v>44.56</v>
       </c>
-      <c r="E266" s="15">
-        <v>19793</v>
-      </c>
-      <c r="F266" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G266" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="267" spans="1:6" ht="18" thickBot="1">
       <c r="A267" s="3">
         <v>0.6</v>
       </c>
@@ -6812,20 +5990,17 @@
       <c r="C267" s="8">
         <v>1933152.4</v>
       </c>
-      <c r="D267" s="9">
+      <c r="D267" s="13">
+        <v>17084</v>
+      </c>
+      <c r="E267" s="19">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="F267" s="9">
         <v>44.59</v>
       </c>
-      <c r="E267" s="15">
-        <v>17084</v>
-      </c>
-      <c r="F267" s="21">
-        <v>0.83699999999999997</v>
-      </c>
-      <c r="G267" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="268" spans="1:6" ht="18" thickBot="1">
       <c r="A268" s="3">
         <v>0.9</v>
       </c>
@@ -6835,20 +6010,17 @@
       <c r="C268" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D268" s="9">
+      <c r="D268" s="13">
+        <v>24598</v>
+      </c>
+      <c r="E268" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F268" s="9">
         <v>44.61</v>
       </c>
-      <c r="E268" s="15">
-        <v>24598</v>
-      </c>
-      <c r="F268" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G268" s="12">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="269" spans="1:6" ht="18" thickBot="1">
       <c r="A269" s="3">
         <v>1.4</v>
       </c>
@@ -6858,20 +6030,17 @@
       <c r="C269" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D269" s="9">
+      <c r="D269" s="13">
+        <v>20654</v>
+      </c>
+      <c r="E269" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F269" s="9">
         <v>44.61</v>
       </c>
-      <c r="E269" s="15">
-        <v>20654</v>
-      </c>
-      <c r="F269" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G269" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="270" spans="1:6" ht="18" thickBot="1">
       <c r="A270" s="3">
         <v>1.9</v>
       </c>
@@ -6881,20 +6050,17 @@
       <c r="C270" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D270" s="9">
+      <c r="D270" s="14">
+        <v>23934</v>
+      </c>
+      <c r="E270" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F270" s="9">
         <v>44.62</v>
       </c>
-      <c r="E270" s="16">
-        <v>23934</v>
-      </c>
-      <c r="F270" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G270" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="271" spans="1:6" ht="18" thickBot="1">
       <c r="A271" s="3">
         <v>2.5</v>
       </c>
@@ -6904,20 +6070,17 @@
       <c r="C271" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D271" s="9">
+      <c r="D271" s="14">
+        <v>22710</v>
+      </c>
+      <c r="E271" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F271" s="9">
         <v>44.63</v>
       </c>
-      <c r="E271" s="16">
-        <v>22710</v>
-      </c>
-      <c r="F271" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G271" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="A272" s="3">
         <v>2.6</v>
       </c>
@@ -6927,20 +6090,17 @@
       <c r="C272" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D272" s="9">
+      <c r="D272" s="14">
+        <v>21935</v>
+      </c>
+      <c r="E272" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F272" s="9">
         <v>44.64</v>
       </c>
-      <c r="E272" s="16">
-        <v>21935</v>
-      </c>
-      <c r="F272" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G272" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="273" spans="1:6" ht="18" thickBot="1">
       <c r="A273" s="3">
         <v>2.2999999999999998</v>
       </c>
@@ -6950,20 +6110,17 @@
       <c r="C273" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D273" s="9">
+      <c r="D273" s="14">
+        <v>21524</v>
+      </c>
+      <c r="E273" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F273" s="9">
         <v>44.65</v>
       </c>
-      <c r="E273" s="16">
-        <v>21524</v>
-      </c>
-      <c r="F273" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G273" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="274" spans="1:6" ht="18" thickBot="1">
       <c r="A274" s="3">
         <v>2.6</v>
       </c>
@@ -6973,20 +6130,17 @@
       <c r="C274" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D274" s="9">
+      <c r="D274" s="14">
+        <v>22356</v>
+      </c>
+      <c r="E274" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F274" s="9">
         <v>44.67</v>
       </c>
-      <c r="E274" s="16">
-        <v>22356</v>
-      </c>
-      <c r="F274" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G274" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="275" spans="1:6" ht="18" thickBot="1">
       <c r="A275" s="3">
         <v>2.6</v>
       </c>
@@ -6996,20 +6150,17 @@
       <c r="C275" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D275" s="9">
+      <c r="D275" s="14">
+        <v>22287</v>
+      </c>
+      <c r="E275" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F275" s="9">
         <v>44.68</v>
       </c>
-      <c r="E275" s="16">
-        <v>22287</v>
-      </c>
-      <c r="F275" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G275" s="12">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="276" spans="1:6" ht="18" thickBot="1">
       <c r="A276" s="3">
         <v>2.4</v>
       </c>
@@ -7019,20 +6170,17 @@
       <c r="C276" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D276" s="9">
+      <c r="D276" s="14">
+        <v>21893</v>
+      </c>
+      <c r="E276" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F276" s="9">
         <v>44.68</v>
       </c>
-      <c r="E276" s="16">
-        <v>21893</v>
-      </c>
-      <c r="F276" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G276" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="277" spans="1:6" ht="18" thickBot="1">
       <c r="A277" s="3">
         <v>3.2</v>
       </c>
@@ -7042,20 +6190,17 @@
       <c r="C277" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D277" s="9">
+      <c r="D277" s="14">
+        <v>20741</v>
+      </c>
+      <c r="E277" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F277" s="9">
         <v>44.68</v>
       </c>
-      <c r="E277" s="16">
-        <v>20741</v>
-      </c>
-      <c r="F277" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G277" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="278" spans="1:6" ht="18" thickBot="1">
       <c r="A278" s="3">
         <v>3.8</v>
       </c>
@@ -7065,20 +6210,17 @@
       <c r="C278" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D278" s="9">
+      <c r="D278" s="14">
+        <v>19793</v>
+      </c>
+      <c r="E278" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F278" s="9">
         <v>44.69</v>
       </c>
-      <c r="E278" s="16">
-        <v>19793</v>
-      </c>
-      <c r="F278" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G278" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="279" spans="1:6" ht="18" thickBot="1">
       <c r="A279" s="3">
         <v>3.7</v>
       </c>
@@ -7088,36 +6230,33 @@
       <c r="C279" s="8">
         <v>2057447.8</v>
       </c>
-      <c r="D279" s="9">
+      <c r="D279" s="14">
+        <v>17084</v>
+      </c>
+      <c r="E279" s="19">
+        <v>0.81</v>
+      </c>
+      <c r="F279" s="9">
         <v>44.7</v>
       </c>
-      <c r="E279" s="16">
-        <v>17084</v>
-      </c>
-      <c r="F279" s="21">
-        <v>0.81</v>
-      </c>
-      <c r="G279" s="12">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="18" thickBot="1"/>
-    <row r="285" spans="1:7" ht="18" thickBot="1">
+    </row>
+    <row r="284" spans="1:6" ht="18" thickBot="1"/>
+    <row r="285" spans="1:6" ht="18" thickBot="1">
       <c r="A285" s="5"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
     </row>
-    <row r="286" spans="1:7" ht="18" thickBot="1">
+    <row r="286" spans="1:6" ht="18" thickBot="1">
       <c r="A286" s="5"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
     </row>
-    <row r="287" spans="1:7" ht="18" thickBot="1">
+    <row r="287" spans="1:6" ht="18" thickBot="1">
       <c r="A287" s="5"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
     </row>
-    <row r="288" spans="1:7" ht="18" thickBot="1">
+    <row r="288" spans="1:6" ht="18" thickBot="1">
       <c r="A288" s="5"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
